--- a/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
@@ -1226,13 +1226,13 @@
     </xf>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -1264,38 +1264,29 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="General Settings"/>
-      <sheetName val="Libor"/>
-      <sheetName val="LiborSwapIsda"/>
+      <sheetName val="GBPLibor"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="IMMFra"/>
+      <sheetName val="IMMFra6M "/>
+      <sheetName val="OIS"/>
+      <sheetName val="MPC OIS"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
       <sheetName val="BasisSwapxM12M"/>
-      <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Futures1M"/>
-      <sheetName val="Futures3M"/>
-      <sheetName val="ImmFra6M "/>
-      <sheetName val="FuturesHWConvAdj"/>
-      <sheetName val="OIS"/>
       <sheetName val="Swaps1M"/>
+      <sheetName val="Swap3MAnnual"/>
+      <sheetName val="Swap3MSemiAnnual"/>
+      <sheetName val="Swap6M"/>
       <sheetName val="SwapsIMMDated"/>
-      <sheetName val="Swap3MSemiAnnual"/>
-      <sheetName val="Swap3MAnnual"/>
-      <sheetName val="Swap6M"/>
-      <sheetName val="1M (2)"/>
-      <sheetName val="3M (2)"/>
-      <sheetName val="6M (2)"/>
-      <sheetName val="IBOR"/>
-      <sheetName val="IB365"/>
-      <sheetName val="SFIX2"/>
-      <sheetName val="SFIX3"/>
-      <sheetName val="MPCOIS"/>
-      <sheetName val="FwdOIS"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1">
-        <row r="14">
-          <cell r="D14" t="str">
+        <row r="11">
+          <cell r="D11" t="str">
             <v>GBPSTD#0000</v>
           </cell>
         </row>
@@ -1316,15 +1307,6 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1738,7 +1720,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -1749,7 +1731,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"0D","F",,Trigger)</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -1782,7 +1764,7 @@
       </c>
       <c r="D18" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPSTD#0018</v>
+        <v>_GBPSTD#0002</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -1860,7 +1842,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -1873,18 +1855,18 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64192</v>
+        <v>64199</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.30097513834698331</v>
+        <v>0.29904858785539268</v>
       </c>
       <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="34" t="str">
-        <f>[1]Libor!$D$14</f>
+        <f>[1]GBPLibor!$D$11</f>
         <v>GBPSTD#0000</v>
       </c>
       <c r="D28" s="35" t="b">
@@ -2093,10 +2075,10 @@
         <f t="array" ref="AC2:AC89">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
         <v>4.8124682740494111E-3</v>
       </c>
-      <c r="AE2" s="160" t="s">
+      <c r="AE2" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="161"/>
+      <c r="AF2" s="162"/>
       <c r="AH2" s="156"/>
     </row>
     <row r="3" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2115,7 +2097,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="109" t="str">
         <f>_xll.qlLibor(,Currency,C3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ed#0011</v>
+        <v>obj_002e8#0002</v>
       </c>
       <c r="H3" s="117" t="str">
         <f t="shared" ref="H3:H11" si="1">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -2124,7 +2106,7 @@
       <c r="I3" s="120"/>
       <c r="J3" s="110" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ef#0011</v>
+        <v>obj_002f5#0002</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2133,7 +2115,7 @@
       </c>
       <c r="M3" s="128" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_004ef#0011</v>
+        <v>obj_002f5#0002</v>
       </c>
       <c r="N3" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2154,20 +2136,20 @@
       </c>
       <c r="S3" s="131">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T3" s="131">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42271</v>
+        <v>42276</v>
       </c>
       <c r="U3" s="159"/>
-      <c r="V3" s="162" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X3,$N$3:$N$89,0),1),"")</f>
+      <c r="V3" s="160" t="str">
+        <f t="shared" ref="V3:V34" si="2">IFERROR(INDEX($L$3:$L$89,MATCH(X3,$N$3:$N$89,0),1),"")</f>
         <v>Dp</v>
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W89">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_004ef</v>
+        <v>obj_002f5</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2183,11 +2165,11 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42271</v>
+        <v>42276</v>
       </c>
       <c r="AC3" s="68">
         <v>4.8124682740494111E-3</v>
@@ -2217,7 +2199,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="55" t="str">
         <f>_xll.qlLibor(,Currency,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ec#0011</v>
+        <v>obj_002e5#0002</v>
       </c>
       <c r="H4" s="153" t="str">
         <f t="shared" si="1"/>
@@ -2227,11 +2209,11 @@
       <c r="J4" s="57"/>
       <c r="K4" s="48"/>
       <c r="L4" s="9" t="str">
-        <f t="shared" ref="L4:L6" si="2">A4</f>
+        <f t="shared" ref="L4:L6" si="3">A4</f>
         <v>Dp</v>
       </c>
       <c r="M4" s="90" t="str">
-        <f t="shared" ref="M4:M6" si="3">IF(ISBLANK(J4),"--",J4)</f>
+        <f t="shared" ref="M4:M6" si="4">IF(ISBLANK(J4),"--",J4)</f>
         <v>--</v>
       </c>
       <c r="N4" s="143" t="str">
@@ -2261,11 +2243,11 @@
       </c>
       <c r="U4" s="159"/>
       <c r="V4" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X4,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_004e8</v>
+        <v>obj_002f2</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2273,7 +2255,7 @@
       </c>
       <c r="Y4" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>4.8550000000000008E-3</v>
+        <v>4.8988E-3</v>
       </c>
       <c r="Z4" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -2281,14 +2263,14 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42277</v>
+        <v>42282</v>
       </c>
       <c r="AC4" s="68">
-        <v>4.8547739905038748E-3</v>
+        <v>4.8985698943041205E-3</v>
       </c>
       <c r="AD4" s="158"/>
       <c r="AE4" s="103" t="s">
@@ -2315,7 +2297,7 @@
       <c r="F5" s="122"/>
       <c r="G5" s="6" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004eb#0011</v>
+        <v>obj_002e2#0002</v>
       </c>
       <c r="H5" s="119" t="str">
         <f t="shared" si="1"/>
@@ -2325,45 +2307,45 @@
       <c r="J5" s="2"/>
       <c r="K5" s="48"/>
       <c r="L5" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>Dp</v>
+      </c>
+      <c r="M5" s="90" t="str">
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="N5" s="143" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="O5" s="94" t="str">
+        <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="P5" s="93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="90">
+        <v>10</v>
+      </c>
+      <c r="R5" s="90">
+        <v>1</v>
+      </c>
+      <c r="S5" s="95" t="str">
+        <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="T5" s="95" t="str">
+        <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
+        <v>--</v>
+      </c>
+      <c r="U5" s="159"/>
+      <c r="V5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
-      <c r="M5" s="90" t="str">
-        <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="N5" s="143" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteName(M5,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="O5" s="94" t="str">
-        <f>IFERROR(_xll.qlRateHelperQuoteValue($M5,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="P5" s="93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="90">
-        <v>10</v>
-      </c>
-      <c r="R5" s="90">
-        <v>1</v>
-      </c>
-      <c r="S5" s="95" t="str">
-        <f>IFERROR(_xll.qlRateHelperEarliestDate(M5,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="T5" s="95" t="str">
-        <f>IFERROR(_xll.qlRateHelperPillarDate(M5,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="U5" s="159"/>
-      <c r="V5" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X5,$N$3:$N$89,0),1),"")</f>
-        <v>Dp</v>
-      </c>
       <c r="W5" s="3" t="str">
-        <v>obj_004e6</v>
+        <v>obj_002f3</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2379,14 +2361,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42300</v>
+        <v>42305</v>
       </c>
       <c r="AC5" s="68">
-        <v>5.0933337396290215E-3</v>
+        <v>5.0933337396311534E-3</v>
       </c>
       <c r="AD5" s="158"/>
       <c r="AE5" s="103" t="s">
@@ -2405,14 +2387,14 @@
         <v>77</v>
       </c>
       <c r="C6" s="61" t="str">
-        <f t="shared" ref="C6:C9" si="4">B6</f>
+        <f t="shared" ref="C6:C9" si="5">B6</f>
         <v>SW</v>
       </c>
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="60" t="str">
-        <f t="shared" ref="G6:G11" si="5">PROPER(Currency)&amp;FamilyName&amp;C6</f>
+        <f t="shared" ref="G6:G11" si="6">PROPER(Currency)&amp;FamilyName&amp;C6</f>
         <v>GbpLiborSW</v>
       </c>
       <c r="H6" s="118" t="str">
@@ -2422,16 +2404,16 @@
       <c r="I6" s="121"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e8#0014</v>
+        <v>obj_002f2#0002</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Dp</v>
       </c>
       <c r="M6" s="90" t="str">
-        <f t="shared" si="3"/>
-        <v>obj_004e8#0014</v>
+        <f t="shared" si="4"/>
+        <v>obj_002f2#0002</v>
       </c>
       <c r="N6" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2439,7 +2421,7 @@
       </c>
       <c r="O6" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M6,Trigger),"--")</f>
-        <v>4.8550000000000008E-3</v>
+        <v>4.8988E-3</v>
       </c>
       <c r="P6" s="93" t="b">
         <v>1</v>
@@ -2452,19 +2434,19 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42277</v>
+        <v>42282</v>
       </c>
       <c r="U6" s="159"/>
       <c r="V6" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X6,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_004e7</v>
+        <v>obj_002f4</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2472,7 +2454,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>5.4013000000000004E-3</v>
+        <v>5.4175000000000004E-3</v>
       </c>
       <c r="Z6" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2480,14 +2462,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42331</v>
+        <v>42338</v>
       </c>
       <c r="AC6" s="68">
-        <v>5.3988636351850637E-3</v>
+        <v>5.4149686925188349E-3</v>
       </c>
       <c r="AD6" s="158"/>
       <c r="AE6" s="103" t="s">
@@ -2506,14 +2488,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1M</v>
       </c>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GbpLibor1M</v>
       </c>
       <c r="H7" s="118" t="str">
@@ -2523,7 +2505,7 @@
       <c r="I7" s="121"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e6#0014</v>
+        <v>obj_002f3#0002</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2532,7 +2514,7 @@
       </c>
       <c r="M7" s="90" t="str">
         <f>IF(ISBLANK(J7),"--",J7)</f>
-        <v>obj_004e6#0014</v>
+        <v>obj_002f3#0002</v>
       </c>
       <c r="N7" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2553,19 +2535,19 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42300</v>
+        <v>42305</v>
       </c>
       <c r="U7" s="159"/>
       <c r="V7" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X7,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_004e5</v>
+        <v>obj_002f1</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2573,7 +2555,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>5.8688000000000004E-3</v>
+        <v>5.8312999999999993E-3</v>
       </c>
       <c r="Z7" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2581,14 +2563,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42361</v>
+        <v>42367</v>
       </c>
       <c r="AC7" s="68">
-        <v>5.8645106273779212E-3</v>
+        <v>5.827018751420999E-3</v>
       </c>
       <c r="AD7" s="158"/>
       <c r="AH7" s="156"/>
@@ -2601,14 +2583,14 @@
         <v>36</v>
       </c>
       <c r="C8" s="61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2M</v>
       </c>
       <c r="D8" s="121"/>
       <c r="E8" s="121"/>
       <c r="F8" s="121"/>
       <c r="G8" s="60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GbpLibor2M</v>
       </c>
       <c r="H8" s="118" t="str">
@@ -2618,7 +2600,7 @@
       <c r="I8" s="121"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e7#0014</v>
+        <v>obj_002f4#0002</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2627,7 +2609,7 @@
       </c>
       <c r="M8" s="90" t="str">
         <f>IF(ISBLANK(J8),"--",J8)</f>
-        <v>obj_004e7#0014</v>
+        <v>obj_002f4#0002</v>
       </c>
       <c r="N8" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2635,7 +2617,7 @@
       </c>
       <c r="O8" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>5.4013000000000004E-3</v>
+        <v>5.4175000000000004E-3</v>
       </c>
       <c r="P8" s="93" t="b">
         <v>1</v>
@@ -2648,19 +2630,19 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42331</v>
+        <v>42338</v>
       </c>
       <c r="U8" s="159"/>
       <c r="V8" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X8,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_004e4</v>
+        <v>obj_002f0</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2668,7 +2650,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>7.4375000000000005E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="Z8" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2676,14 +2658,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42452</v>
+        <v>42458</v>
       </c>
       <c r="AC8" s="68">
-        <v>7.4237427888701997E-3</v>
+        <v>7.4859342223137105E-3</v>
       </c>
       <c r="AD8" s="158"/>
       <c r="AH8" s="156"/>
@@ -2696,14 +2678,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3M</v>
       </c>
       <c r="D9" s="121"/>
       <c r="E9" s="121"/>
       <c r="F9" s="121"/>
       <c r="G9" s="60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H9" s="118" t="str">
@@ -2713,7 +2695,7 @@
       <c r="I9" s="121"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e5#0014</v>
+        <v>obj_002f1#0002</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -2722,7 +2704,7 @@
       </c>
       <c r="M9" s="90" t="str">
         <f>IF(ISBLANK(J9),"--",J9)</f>
-        <v>obj_004e5#0014</v>
+        <v>obj_002f1#0002</v>
       </c>
       <c r="N9" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2730,7 +2712,7 @@
       </c>
       <c r="O9" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>5.8688000000000004E-3</v>
+        <v>5.8312999999999993E-3</v>
       </c>
       <c r="P9" s="93" t="b">
         <v>1</v>
@@ -2743,19 +2725,19 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42361</v>
+        <v>42367</v>
       </c>
       <c r="U9" s="159"/>
       <c r="V9" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X9,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>FRA</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_004dd</v>
+        <v>obj_002ef</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2763,7 +2745,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>8.3499999999999998E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2771,14 +2753,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42452</v>
+        <v>42458</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42636</v>
+        <v>42641</v>
       </c>
       <c r="AC9" s="68">
-        <v>7.8805919052925798E-3</v>
+        <v>7.8809921683530675E-3</v>
       </c>
       <c r="AD9" s="158"/>
       <c r="AH9" s="156"/>
@@ -2791,14 +2773,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="61" t="str">
-        <f t="shared" ref="C10:C11" si="6">B10</f>
+        <f t="shared" ref="C10:C11" si="7">B10</f>
         <v>6M</v>
       </c>
       <c r="D10" s="121"/>
       <c r="E10" s="121"/>
       <c r="F10" s="121"/>
       <c r="G10" s="60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H10" s="118" t="str">
@@ -2808,7 +2790,7 @@
       <c r="I10" s="121"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e4#0014</v>
+        <v>obj_002f0#0002</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>34</v>
@@ -2819,7 +2801,7 @@
       </c>
       <c r="M10" s="90" t="str">
         <f>IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_004e4#0014</v>
+        <v>obj_002f0#0002</v>
       </c>
       <c r="N10" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -2827,7 +2809,7 @@
       </c>
       <c r="O10" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>7.4375000000000005E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="P10" s="93" t="b">
         <v>1</v>
@@ -2840,19 +2822,19 @@
       </c>
       <c r="S10" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T10" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42452</v>
+        <v>42458</v>
       </c>
       <c r="U10" s="159"/>
       <c r="V10" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X10,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>FRA</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_004df</v>
+        <v>obj_002ee</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -2860,7 +2842,7 @@
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>9.2500000000000013E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="Z10" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -2868,14 +2850,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42544</v>
+        <v>42549</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42727</v>
+        <v>42732</v>
       </c>
       <c r="AC10" s="68">
-        <v>8.2834370635095026E-3</v>
+        <v>8.281624008216238E-3</v>
       </c>
       <c r="AD10" s="158"/>
       <c r="AH10" s="156"/>
@@ -2888,14 +2870,14 @@
         <v>27</v>
       </c>
       <c r="C11" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1Y</v>
       </c>
       <c r="D11" s="122"/>
       <c r="E11" s="122"/>
       <c r="F11" s="122"/>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>GbpLibor1Y</v>
       </c>
       <c r="H11" s="119" t="str">
@@ -2940,11 +2922,11 @@
       </c>
       <c r="U11" s="159"/>
       <c r="V11" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X11,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>FRA</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_004e3</v>
+        <v>obj_002ed</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -2952,7 +2934,7 @@
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>1.0299999999999998E-2</v>
+        <v>1.0249999999999999E-2</v>
       </c>
       <c r="Z11" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -2960,14 +2942,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42636</v>
+        <v>42641</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42817</v>
+        <v>42822</v>
       </c>
       <c r="AC11" s="68">
-        <v>8.6724893453161544E-3</v>
+        <v>8.6562962460538153E-3</v>
       </c>
       <c r="AD11" s="158"/>
       <c r="AH11" s="156"/>
@@ -2984,11 +2966,11 @@
       <c r="H12" s="47"/>
       <c r="K12" s="48"/>
       <c r="L12" s="9" t="str">
-        <f>A14</f>
+        <f t="shared" ref="L12:L29" si="8">A14</f>
         <v>FRA</v>
       </c>
       <c r="M12" s="90" t="str">
-        <f>IF(ISBLANK(J14),"--",J14)</f>
+        <f t="shared" ref="M12:M29" si="9">IF(ISBLANK(J14),"--",J14)</f>
         <v>--</v>
       </c>
       <c r="N12" s="143" t="str">
@@ -3017,11 +2999,11 @@
         <v>--</v>
       </c>
       <c r="V12" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X12,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_0050c</v>
+        <v>obj_002df</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3029,7 +3011,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>9.6399999999999993E-3</v>
+        <v>9.6200000000000001E-3</v>
       </c>
       <c r="Z12" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3037,14 +3019,14 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43003</v>
+        <v>43006</v>
       </c>
       <c r="AC12" s="68">
-        <v>9.6269969369455945E-3</v>
+        <v>9.607007591611736E-3</v>
       </c>
       <c r="AD12" s="158"/>
       <c r="AH12" s="156"/>
@@ -3074,11 +3056,11 @@
       </c>
       <c r="K13" s="48"/>
       <c r="L13" s="9" t="str">
-        <f>A15</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M13" s="90" t="str">
-        <f>IF(ISBLANK(J15),"--",J15)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N13" s="143" t="str">
@@ -3107,11 +3089,11 @@
         <v>--</v>
       </c>
       <c r="V13" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X13,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_004fb</v>
+        <v>obj_002dc</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3119,7 +3101,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>1.1520000000000001E-2</v>
+        <v>1.153E-2</v>
       </c>
       <c r="Z13" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3127,14 +3109,14 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>43367</v>
+        <v>43371</v>
       </c>
       <c r="AC13" s="68">
-        <v>1.1517823246329736E-2</v>
+        <v>1.1528005147667124E-2</v>
       </c>
       <c r="AD13" s="158"/>
       <c r="AH13" s="156"/>
@@ -3147,29 +3129,29 @@
         <v>1</v>
       </c>
       <c r="C14" s="56" t="str">
-        <f>"x"&amp;B14+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" ref="C14:C31" si="10">"x"&amp;B14+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
         <v>x7F</v>
       </c>
       <c r="D14" s="127"/>
       <c r="E14" s="127"/>
       <c r="F14" s="127"/>
       <c r="G14" s="55" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" ref="G14:G31" si="11">PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
         <v>GbpLibor6M</v>
       </c>
       <c r="H14" s="114" t="str">
-        <f t="shared" ref="H14:H31" si="7">Currency&amp;B14&amp;C14&amp;QuoteSuffix</f>
+        <f t="shared" ref="H14:H31" si="12">Currency&amp;B14&amp;C14&amp;QuoteSuffix</f>
         <v>GBP1x7F_Quote</v>
       </c>
       <c r="I14" s="127"/>
       <c r="J14" s="57"/>
       <c r="K14" s="48"/>
       <c r="L14" s="9" t="str">
-        <f>A16</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M14" s="90" t="str">
-        <f>IF(ISBLANK(J16),"--",J16)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N14" s="143" t="str">
@@ -3198,11 +3180,11 @@
         <v>--</v>
       </c>
       <c r="V14" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X14,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_004ff</v>
+        <v>obj_002da</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3210,7 +3192,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.3170000000000001E-2</v>
+        <v>1.3239999999999998E-2</v>
       </c>
       <c r="Z14" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3218,14 +3200,14 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="AC14" s="68">
-        <v>1.3187106378793393E-2</v>
+        <v>1.3258170998812709E-2</v>
       </c>
       <c r="AD14" s="158"/>
       <c r="AH14" s="156"/>
@@ -3238,29 +3220,29 @@
         <v>2</v>
       </c>
       <c r="C15" s="61" t="str">
-        <f>"x"&amp;B15+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x8F</v>
       </c>
       <c r="D15" s="121"/>
       <c r="E15" s="121"/>
       <c r="F15" s="121"/>
       <c r="G15" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H15" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP2x8F_Quote</v>
       </c>
       <c r="I15" s="121"/>
       <c r="J15" s="62"/>
       <c r="K15" s="48"/>
       <c r="L15" s="9" t="str">
-        <f>A17</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M15" s="90" t="str">
-        <f>IF(ISBLANK(J17),"--",J17)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N15" s="143" t="str">
@@ -3289,11 +3271,11 @@
         <v>--</v>
       </c>
       <c r="V15" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X15,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_004f8</v>
+        <v>obj_002eb</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3301,7 +3283,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.4580000000000003E-2</v>
+        <v>1.4729999999999998E-2</v>
       </c>
       <c r="Z15" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3309,14 +3291,14 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44097</v>
+        <v>44102</v>
       </c>
       <c r="AC15" s="68">
-        <v>1.4622988244865999E-2</v>
+        <v>1.4776629436712443E-2</v>
       </c>
       <c r="AD15" s="158"/>
       <c r="AH15" s="156"/>
@@ -3329,29 +3311,29 @@
         <v>3</v>
       </c>
       <c r="C16" s="61" t="str">
-        <f>"x"&amp;B16+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x9F</v>
       </c>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
       <c r="F16" s="121"/>
       <c r="G16" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H16" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP3x9F_Quote</v>
       </c>
       <c r="I16" s="121"/>
       <c r="J16" s="62"/>
       <c r="K16" s="48"/>
       <c r="L16" s="9" t="str">
-        <f>A18</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M16" s="90" t="str">
-        <f>IF(ISBLANK(J18),"--",J18)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N16" s="143" t="str">
@@ -3380,11 +3362,11 @@
         <v>--</v>
       </c>
       <c r="V16" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X16,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_004f7</v>
+        <v>obj_002ec</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3392,7 +3374,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.5730000000000001E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="Z16" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3400,14 +3382,14 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="AC16" s="68">
-        <v>1.5801772123279351E-2</v>
+        <v>1.601781427734926E-2</v>
       </c>
       <c r="AD16" s="158"/>
       <c r="AH16" s="156"/>
@@ -3420,30 +3402,30 @@
         <v>4</v>
       </c>
       <c r="C17" s="61" t="str">
-        <f>"x"&amp;B17+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x10F</v>
       </c>
       <c r="D17" s="121"/>
       <c r="E17" s="121"/>
       <c r="F17" s="121"/>
       <c r="G17" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H17" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP4x10F_Quote</v>
       </c>
       <c r="I17" s="121"/>
       <c r="J17" s="62"/>
       <c r="K17" s="48"/>
       <c r="L17" s="9" t="str">
-        <f>A19</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M17" s="90" t="str">
-        <f>IF(ISBLANK(J19),"--",J19)</f>
-        <v>obj_004dd#0013</v>
+        <f t="shared" si="9"/>
+        <v>obj_002ef#0002</v>
       </c>
       <c r="N17" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3451,7 +3433,7 @@
       </c>
       <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>8.3499999999999998E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="P17" s="93" t="b">
         <v>1</v>
@@ -3464,18 +3446,18 @@
       </c>
       <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42452</v>
+        <v>42458</v>
       </c>
       <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42636</v>
+        <v>42641</v>
       </c>
       <c r="V17" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X17,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_004fa</v>
+        <v>obj_002e7</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3483,7 +3465,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.6669999999999997E-2</v>
+        <v>1.6909999999999998E-2</v>
       </c>
       <c r="Z17" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3491,14 +3473,14 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>44827</v>
+        <v>44832</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.6771356617393072E-2</v>
+        <v>1.7018843150330219E-2</v>
       </c>
       <c r="AD17" s="158"/>
       <c r="AH17" s="156"/>
@@ -3511,29 +3493,29 @@
         <v>5</v>
       </c>
       <c r="C18" s="61" t="str">
-        <f>"x"&amp;B18+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x11F</v>
       </c>
       <c r="D18" s="121"/>
       <c r="E18" s="121"/>
       <c r="F18" s="121"/>
       <c r="G18" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H18" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP5x11F_Quote</v>
       </c>
       <c r="I18" s="121"/>
       <c r="J18" s="62"/>
       <c r="K18" s="48"/>
       <c r="L18" s="9" t="str">
-        <f>A20</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M18" s="90" t="str">
-        <f>IF(ISBLANK(J20),"--",J20)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N18" s="143" t="str">
@@ -3562,11 +3544,11 @@
         <v>--</v>
       </c>
       <c r="V18" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X18,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_0050d</v>
+        <v>obj_002e4</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -3574,7 +3556,7 @@
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.745E-2</v>
+        <v>1.771E-2</v>
       </c>
       <c r="Z18" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3582,14 +3564,14 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="AC18" s="68">
-        <v>1.7580715953511693E-2</v>
+        <v>1.7849528559233774E-2</v>
       </c>
       <c r="AD18" s="158"/>
       <c r="AH18" s="156"/>
@@ -3602,32 +3584,32 @@
         <v>6</v>
       </c>
       <c r="C19" s="61" t="str">
-        <f>"x"&amp;B19+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x12F</v>
       </c>
       <c r="D19" s="121"/>
       <c r="E19" s="121"/>
       <c r="F19" s="121"/>
       <c r="G19" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H19" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP6x12F_Quote</v>
       </c>
       <c r="I19" s="121"/>
       <c r="J19" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dd#0013</v>
+        <v>obj_002ef#0002</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
-        <f>A21</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M19" s="90" t="str">
-        <f>IF(ISBLANK(J21),"--",J21)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N19" s="143" t="str">
@@ -3656,11 +3638,11 @@
         <v>--</v>
       </c>
       <c r="V19" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X19,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_004fd</v>
+        <v>obj_002e1</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -3668,7 +3650,7 @@
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.8100000000000002E-2</v>
+        <v>1.839E-2</v>
       </c>
       <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3676,14 +3658,14 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="AC19" s="68">
-        <v>1.8259350709248091E-2</v>
+        <v>1.8559991807943207E-2</v>
       </c>
       <c r="AD19" s="158"/>
       <c r="AH19" s="156"/>
@@ -3696,30 +3678,30 @@
         <v>7</v>
       </c>
       <c r="C20" s="61" t="str">
-        <f>"x"&amp;B20+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x13F</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
       <c r="F20" s="121"/>
       <c r="G20" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H20" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP7x13F_Quote</v>
       </c>
       <c r="I20" s="121"/>
       <c r="J20" s="62"/>
       <c r="K20" s="48"/>
       <c r="L20" s="9" t="str">
-        <f>A22</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M20" s="90" t="str">
-        <f>IF(ISBLANK(J22),"--",J22)</f>
-        <v>obj_004df#0013</v>
+        <f t="shared" si="9"/>
+        <v>obj_002ee#0002</v>
       </c>
       <c r="N20" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -3727,7 +3709,7 @@
       </c>
       <c r="O20" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>9.2500000000000013E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="P20" s="93" t="b">
         <v>1</v>
@@ -3740,18 +3722,18 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42544</v>
+        <v>42549</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42727</v>
+        <v>42732</v>
       </c>
       <c r="V20" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X20,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_00511</v>
+        <v>obj_002de</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -3759,7 +3741,7 @@
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.8630000000000001E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -3767,14 +3749,14 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>45923</v>
+        <v>45929</v>
       </c>
       <c r="AC20" s="68">
-        <v>1.8814790253665638E-2</v>
+        <v>1.9170159640231943E-2</v>
       </c>
       <c r="AD20" s="158"/>
       <c r="AH20" s="156"/>
@@ -3787,29 +3769,29 @@
         <v>8</v>
       </c>
       <c r="C21" s="61" t="str">
-        <f>"x"&amp;B21+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x14F</v>
       </c>
       <c r="D21" s="121"/>
       <c r="E21" s="121"/>
       <c r="F21" s="121"/>
       <c r="G21" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H21" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP8x14F_Quote</v>
       </c>
       <c r="I21" s="121"/>
       <c r="J21" s="62"/>
       <c r="K21" s="48"/>
       <c r="L21" s="9" t="str">
-        <f>A23</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M21" s="90" t="str">
-        <f>IF(ISBLANK(J23),"--",J23)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N21" s="143" t="str">
@@ -3838,11 +3820,11 @@
         <v>--</v>
       </c>
       <c r="V21" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X21,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_004fc</v>
+        <v>obj_002db</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -3850,7 +3832,7 @@
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.9540000000000002E-2</v>
+        <v>1.9889999999999998E-2</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3858,14 +3840,14 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>46653</v>
+        <v>46658</v>
       </c>
       <c r="AC21" s="68">
-        <v>1.9780310322449951E-2</v>
+        <v>2.0146242554120088E-2</v>
       </c>
       <c r="AD21" s="158"/>
       <c r="AH21" s="156"/>
@@ -3878,32 +3860,32 @@
         <v>9</v>
       </c>
       <c r="C22" s="61" t="str">
-        <f>"x"&amp;B22+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x15F</v>
       </c>
       <c r="D22" s="121"/>
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H22" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP9x15F_Quote</v>
       </c>
       <c r="I22" s="121"/>
       <c r="J22" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H22,B22&amp;"M",G22,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004df#0013</v>
+        <v>obj_002ee#0002</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
-        <f>A24</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M22" s="90" t="str">
-        <f>IF(ISBLANK(J24),"--",J24)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N22" s="143" t="str">
@@ -3932,11 +3914,11 @@
         <v>--</v>
       </c>
       <c r="V22" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X22,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_0050f</v>
+        <v>obj_002d9</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -3944,7 +3926,7 @@
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.0460000000000002E-2</v>
+        <v>2.0789999999999996E-2</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3952,14 +3934,14 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>47749</v>
+        <v>47756</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.0765500244997286E-2</v>
+        <v>2.1107210111849191E-2</v>
       </c>
       <c r="AD22" s="158"/>
       <c r="AH22" s="156"/>
@@ -3972,30 +3954,30 @@
         <v>10</v>
       </c>
       <c r="C23" s="61" t="str">
-        <f>"x"&amp;B23+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x16F</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
       <c r="F23" s="121"/>
       <c r="G23" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H23" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP10x16F_Quote</v>
       </c>
       <c r="I23" s="121"/>
       <c r="J23" s="62"/>
       <c r="K23" s="48"/>
       <c r="L23" s="9" t="str">
-        <f>A25</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M23" s="90" t="str">
-        <f>IF(ISBLANK(J25),"--",J25)</f>
-        <v>obj_004e3#0013</v>
+        <f t="shared" si="9"/>
+        <v>obj_002ed#0002</v>
       </c>
       <c r="N23" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -4003,7 +3985,7 @@
       </c>
       <c r="O23" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.0299999999999998E-2</v>
+        <v>1.0249999999999999E-2</v>
       </c>
       <c r="P23" s="93" t="b">
         <v>1</v>
@@ -4016,18 +3998,18 @@
       </c>
       <c r="S23" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42636</v>
+        <v>42641</v>
       </c>
       <c r="T23" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42817</v>
+        <v>42822</v>
       </c>
       <c r="V23" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X23,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_004fe</v>
+        <v>obj_002ea</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
@@ -4035,7 +4017,7 @@
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.1150000000000002E-2</v>
+        <v>2.1440000000000001E-2</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4043,14 +4025,14 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>49576</v>
+        <v>49580</v>
       </c>
       <c r="AC23" s="68">
-        <v>2.148699495951012E-2</v>
+        <v>2.1779432326784816E-2</v>
       </c>
       <c r="AD23" s="158"/>
       <c r="AH23" s="156"/>
@@ -4063,29 +4045,29 @@
         <v>11</v>
       </c>
       <c r="C24" s="61" t="str">
-        <f>"x"&amp;B24+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x17F</v>
       </c>
       <c r="D24" s="121"/>
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
       <c r="G24" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H24" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP11x17F_Quote</v>
       </c>
       <c r="I24" s="121"/>
       <c r="J24" s="62"/>
       <c r="K24" s="48"/>
       <c r="L24" s="9" t="str">
-        <f>A26</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M24" s="90" t="str">
-        <f>IF(ISBLANK(J26),"--",J26)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N24" s="143" t="str">
@@ -4114,11 +4096,11 @@
         <v>--</v>
       </c>
       <c r="V24" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X24,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_0050a</v>
+        <v>obj_002e9</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -4126,7 +4108,7 @@
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4134,14 +4116,14 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>51403</v>
+        <v>51407</v>
       </c>
       <c r="AC24" s="68">
-        <v>2.1485773152432955E-2</v>
+        <v>2.1764639668020808E-2</v>
       </c>
       <c r="AD24" s="158"/>
       <c r="AH24" s="156"/>
@@ -4154,32 +4136,32 @@
         <v>12</v>
       </c>
       <c r="C25" s="61" t="str">
-        <f>"x"&amp;B25+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x18F</v>
       </c>
       <c r="D25" s="121"/>
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H25" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP12x18F_Quote</v>
       </c>
       <c r="I25" s="121"/>
       <c r="J25" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H25,B25&amp;"M",G25,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e3#0013</v>
+        <v>obj_002ed#0002</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
-        <f>A27</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M25" s="90" t="str">
-        <f>IF(ISBLANK(J27),"--",J27)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N25" s="143" t="str">
@@ -4208,11 +4190,11 @@
         <v>--</v>
       </c>
       <c r="V25" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X25,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_00501</v>
+        <v>obj_002e6</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -4220,7 +4202,7 @@
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.1189999999999997E-2</v>
+        <v>2.145E-2</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4228,14 +4210,14 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>53230</v>
+        <v>53233</v>
       </c>
       <c r="AC25" s="68">
-        <v>2.1382454237532655E-2</v>
+        <v>2.1634034483433141E-2</v>
       </c>
       <c r="AD25" s="158"/>
       <c r="AH25" s="156"/>
@@ -4248,29 +4230,29 @@
         <v>13</v>
       </c>
       <c r="C26" s="61" t="str">
-        <f>"x"&amp;B26+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x19F</v>
       </c>
       <c r="D26" s="121"/>
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H26" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP13x19F_Quote</v>
       </c>
       <c r="I26" s="121"/>
       <c r="J26" s="62"/>
       <c r="K26" s="48"/>
       <c r="L26" s="9" t="str">
-        <f>A28</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M26" s="90" t="str">
-        <f>IF(ISBLANK(J28),"--",J28)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N26" s="143" t="str">
@@ -4299,11 +4281,11 @@
         <v>--</v>
       </c>
       <c r="V26" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X26,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_004f5</v>
+        <v>obj_002e3</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -4311,7 +4293,7 @@
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>2.077E-2</v>
+        <v>2.0959999999999999E-2</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4319,14 +4301,14 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>56880</v>
+        <v>56885</v>
       </c>
       <c r="AC26" s="68">
-        <v>2.0710622464578658E-2</v>
+        <v>2.0862681108160995E-2</v>
       </c>
       <c r="AD26" s="158"/>
       <c r="AH26" s="156"/>
@@ -4339,29 +4321,29 @@
         <v>14</v>
       </c>
       <c r="C27" s="61" t="str">
-        <f>"x"&amp;B27+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x20F</v>
       </c>
       <c r="D27" s="121"/>
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H27" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP14x20F_Quote</v>
       </c>
       <c r="I27" s="121"/>
       <c r="J27" s="62"/>
       <c r="K27" s="48"/>
       <c r="L27" s="9" t="str">
-        <f>A29</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M27" s="90" t="str">
-        <f>IF(ISBLANK(J29),"--",J29)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N27" s="143" t="str">
@@ -4390,11 +4372,11 @@
         <v>--</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X27,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_00508</v>
+        <v>obj_002e0</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -4402,7 +4384,7 @@
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>2.036E-2</v>
+        <v>2.051E-2</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4410,14 +4392,14 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>60533</v>
+        <v>60538</v>
       </c>
       <c r="AC27" s="68">
-        <v>2.0063166390682712E-2</v>
+        <v>2.0159593750448367E-2</v>
       </c>
       <c r="AD27" s="158"/>
       <c r="AH27" s="156"/>
@@ -4430,29 +4412,29 @@
         <v>15</v>
       </c>
       <c r="C28" s="61" t="str">
-        <f>"x"&amp;B28+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x21F</v>
       </c>
       <c r="D28" s="121"/>
       <c r="E28" s="121"/>
       <c r="F28" s="121"/>
       <c r="G28" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H28" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP15x21F_Quote</v>
       </c>
       <c r="I28" s="121"/>
       <c r="J28" s="62"/>
       <c r="K28" s="48"/>
       <c r="L28" s="9" t="str">
-        <f>A30</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M28" s="90" t="str">
-        <f>IF(ISBLANK(J30),"--",J30)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N28" s="143" t="str">
@@ -4481,11 +4463,11 @@
         <v>--</v>
       </c>
       <c r="V28" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X28,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_00502</v>
+        <v>obj_002dd</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -4493,7 +4475,7 @@
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>2.0300000000000002E-2</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4501,14 +4483,14 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>64185</v>
+        <v>64192</v>
       </c>
       <c r="AC28" s="68">
-        <v>1.9992179597911799E-2</v>
+        <v>2.0097248772066062E-2</v>
       </c>
       <c r="AD28" s="158"/>
       <c r="AH28" s="156"/>
@@ -4521,29 +4503,29 @@
         <v>16</v>
       </c>
       <c r="C29" s="61" t="str">
-        <f>"x"&amp;B29+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x22F</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
       <c r="F29" s="121"/>
       <c r="G29" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H29" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP16x22F_Quote</v>
       </c>
       <c r="I29" s="121"/>
       <c r="J29" s="62"/>
       <c r="K29" s="48"/>
       <c r="L29" s="9" t="str">
-        <f>A31</f>
+        <f t="shared" si="8"/>
         <v>FRA</v>
       </c>
       <c r="M29" s="90" t="str">
-        <f>IF(ISBLANK(J31),"--",J31)</f>
+        <f t="shared" si="9"/>
         <v>--</v>
       </c>
       <c r="N29" s="143" t="str">
@@ -4572,7 +4554,7 @@
         <v>--</v>
       </c>
       <c r="V29" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X29,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W29" s="3" t="e">
@@ -4612,29 +4594,29 @@
         <v>17</v>
       </c>
       <c r="C30" s="61" t="str">
-        <f>"x"&amp;B30+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x23F</v>
       </c>
       <c r="D30" s="121"/>
       <c r="E30" s="121"/>
       <c r="F30" s="121"/>
       <c r="G30" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H30" s="115" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP17x23F_Quote</v>
       </c>
       <c r="I30" s="121"/>
       <c r="J30" s="62"/>
       <c r="K30" s="48"/>
       <c r="L30" s="66" t="str">
-        <f>A34</f>
+        <f t="shared" ref="L30:L51" si="13">A34</f>
         <v>FUT</v>
       </c>
       <c r="M30" s="128" t="str">
-        <f>IF(ISBLANK(J34),"--",J34)</f>
+        <f t="shared" ref="M30:M51" si="14">IF(ISBLANK(J34),"--",J34)</f>
         <v>--</v>
       </c>
       <c r="N30" s="142" t="str">
@@ -4663,7 +4645,7 @@
         <v>--</v>
       </c>
       <c r="V30" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X30,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W30" s="3" t="e">
@@ -4703,29 +4685,29 @@
         <v>18</v>
       </c>
       <c r="C31" s="8" t="str">
-        <f>"x"&amp;B31+SUBSTITUTE($G$12,"M","")&amp;"F"</f>
+        <f t="shared" si="10"/>
         <v>x24F</v>
       </c>
       <c r="D31" s="122"/>
       <c r="E31" s="122"/>
       <c r="F31" s="122"/>
       <c r="G31" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$12</f>
+        <f t="shared" si="11"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H31" s="116" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>GBP18x24F_Quote</v>
       </c>
       <c r="I31" s="122"/>
       <c r="J31" s="2"/>
       <c r="K31" s="48"/>
       <c r="L31" s="9" t="str">
-        <f>A35</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M31" s="90" t="str">
-        <f>IF(ISBLANK(J35),"--",J35)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N31" s="143" t="str">
@@ -4754,7 +4736,7 @@
         <v>--</v>
       </c>
       <c r="V31" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X31,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W31" s="3" t="e">
@@ -4800,11 +4782,11 @@
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="9" t="str">
-        <f>A36</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M32" s="90" t="str">
-        <f>IF(ISBLANK(J36),"--",J36)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N32" s="143" t="str">
@@ -4833,7 +4815,7 @@
         <v>--</v>
       </c>
       <c r="V32" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X32,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W32" s="3" t="e">
@@ -4891,11 +4873,11 @@
       </c>
       <c r="K33" s="48"/>
       <c r="L33" s="9" t="str">
-        <f>A37</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M33" s="90" t="str">
-        <f>IF(ISBLANK(J37),"--",J37)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N33" s="143" t="str">
@@ -4924,7 +4906,7 @@
         <v>--</v>
       </c>
       <c r="V33" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X33,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W33" s="3" t="e">
@@ -4970,25 +4952,25 @@
       <c r="E34" s="127"/>
       <c r="F34" s="127"/>
       <c r="G34" s="55" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" ref="G34:G55" si="15">PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
         <v>GbpLibor3M</v>
       </c>
       <c r="H34" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;QuoteSuffix</f>
+        <f t="shared" ref="H34:H55" si="16">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;QuoteSuffix</f>
         <v>GBPFUT3MV5_Quote</v>
       </c>
       <c r="I34" s="114" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" ref="I34:I55" si="17">Currency&amp;"FUT"&amp;$G$32&amp;$C34&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>GBPFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J34" s="57"/>
       <c r="K34" s="48"/>
       <c r="L34" s="9" t="str">
-        <f>A38</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M34" s="90" t="str">
-        <f>IF(ISBLANK(J38),"--",J38)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N34" s="143" t="str">
@@ -5017,7 +4999,7 @@
         <v>--</v>
       </c>
       <c r="V34" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X34,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W34" s="3" t="e">
@@ -5063,25 +5045,25 @@
       <c r="E35" s="121"/>
       <c r="F35" s="121"/>
       <c r="G35" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H35" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C35&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MX5_Quote</v>
       </c>
       <c r="I35" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C35&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J35" s="62"/>
       <c r="K35" s="48"/>
       <c r="L35" s="9" t="str">
-        <f>A39</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M35" s="90" t="str">
-        <f>IF(ISBLANK(J39),"--",J39)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N35" s="143" t="str">
@@ -5110,7 +5092,7 @@
         <v>--</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X35,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" ref="V35:V66" si="18">IFERROR(INDEX($L$3:$L$89,MATCH(X35,$N$3:$N$89,0),1),"")</f>
         <v/>
       </c>
       <c r="W35" s="3" t="e">
@@ -5156,25 +5138,25 @@
       <c r="E36" s="121"/>
       <c r="F36" s="121"/>
       <c r="G36" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H36" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C36&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MZ5_Quote</v>
       </c>
       <c r="I36" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C36&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J36" s="62"/>
       <c r="K36" s="48"/>
       <c r="L36" s="9" t="str">
-        <f>A40</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M36" s="90" t="str">
-        <f>IF(ISBLANK(J40),"--",J40)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N36" s="143" t="str">
@@ -5203,7 +5185,7 @@
         <v>--</v>
       </c>
       <c r="V36" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X36,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W36" s="3" t="e">
@@ -5249,25 +5231,25 @@
       <c r="E37" s="121"/>
       <c r="F37" s="121"/>
       <c r="G37" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H37" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C37&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MF6_Quote</v>
       </c>
       <c r="I37" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C37&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J37" s="62"/>
       <c r="K37" s="48"/>
       <c r="L37" s="9" t="str">
-        <f>A41</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M37" s="90" t="str">
-        <f>IF(ISBLANK(J41),"--",J41)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N37" s="143" t="str">
@@ -5296,7 +5278,7 @@
         <v>--</v>
       </c>
       <c r="V37" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X37,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W37" s="3" t="e">
@@ -5342,25 +5324,25 @@
       <c r="E38" s="122"/>
       <c r="F38" s="122"/>
       <c r="G38" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H38" s="116" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C38&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MG6_Quote</v>
       </c>
       <c r="I38" s="116" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C38&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="48"/>
       <c r="L38" s="9" t="str">
-        <f>A42</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M38" s="90" t="str">
-        <f>IF(ISBLANK(J42),"--",J42)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N38" s="143" t="str">
@@ -5389,7 +5371,7 @@
         <v>--</v>
       </c>
       <c r="V38" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X38,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W38" s="3" t="e">
@@ -5435,24 +5417,24 @@
       <c r="E39" s="121"/>
       <c r="F39" s="121"/>
       <c r="G39" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H39" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C39&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MH6_Quote</v>
       </c>
       <c r="I39" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C39&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J39" s="62"/>
       <c r="L39" s="9" t="str">
-        <f>A43</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M39" s="90" t="str">
-        <f>IF(ISBLANK(J43),"--",J43)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N39" s="143" t="str">
@@ -5481,7 +5463,7 @@
         <v>--</v>
       </c>
       <c r="V39" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X39,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W39" s="3" t="e">
@@ -5527,24 +5509,24 @@
       <c r="E40" s="121"/>
       <c r="F40" s="121"/>
       <c r="G40" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H40" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C40&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MM6_Quote</v>
       </c>
       <c r="I40" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C40&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J40" s="62"/>
       <c r="L40" s="9" t="str">
-        <f>A44</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M40" s="90" t="str">
-        <f>IF(ISBLANK(J44),"--",J44)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N40" s="143" t="str">
@@ -5573,7 +5555,7 @@
         <v>--</v>
       </c>
       <c r="V40" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X40,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W40" s="3" t="e">
@@ -5619,24 +5601,24 @@
       <c r="E41" s="121"/>
       <c r="F41" s="121"/>
       <c r="G41" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H41" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C41&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MU6_Quote</v>
       </c>
       <c r="I41" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C41&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J41" s="62"/>
       <c r="L41" s="9" t="str">
-        <f>A45</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M41" s="90" t="str">
-        <f>IF(ISBLANK(J45),"--",J45)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N41" s="143" t="str">
@@ -5665,7 +5647,7 @@
         <v>--</v>
       </c>
       <c r="V41" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X41,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W41" s="3" t="e">
@@ -5711,24 +5693,24 @@
       <c r="E42" s="121"/>
       <c r="F42" s="121"/>
       <c r="G42" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H42" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C42&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MZ6_Quote</v>
       </c>
       <c r="I42" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C42&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J42" s="62"/>
       <c r="L42" s="9" t="str">
-        <f>A46</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M42" s="90" t="str">
-        <f>IF(ISBLANK(J46),"--",J46)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N42" s="143" t="str">
@@ -5757,7 +5739,7 @@
         <v>--</v>
       </c>
       <c r="V42" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X42,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W42" s="3" t="e">
@@ -5803,24 +5785,24 @@
       <c r="E43" s="121"/>
       <c r="F43" s="121"/>
       <c r="G43" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H43" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C43&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MH7_Quote</v>
       </c>
       <c r="I43" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C43&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J43" s="62"/>
       <c r="L43" s="9" t="str">
-        <f>A47</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M43" s="90" t="str">
-        <f>IF(ISBLANK(J47),"--",J47)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N43" s="143" t="str">
@@ -5849,7 +5831,7 @@
         <v>--</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X43,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W43" s="3" t="e">
@@ -5895,24 +5877,24 @@
       <c r="E44" s="121"/>
       <c r="F44" s="121"/>
       <c r="G44" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H44" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C44&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MM7_Quote</v>
       </c>
       <c r="I44" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C44&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J44" s="62"/>
       <c r="L44" s="9" t="str">
-        <f>A48</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M44" s="90" t="str">
-        <f>IF(ISBLANK(J48),"--",J48)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N44" s="143" t="str">
@@ -5941,7 +5923,7 @@
         <v>--</v>
       </c>
       <c r="V44" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X44,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W44" s="3" t="e">
@@ -5987,24 +5969,24 @@
       <c r="E45" s="121"/>
       <c r="F45" s="121"/>
       <c r="G45" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H45" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C45&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MU7_Quote</v>
       </c>
       <c r="I45" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C45&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J45" s="62"/>
       <c r="L45" s="9" t="str">
-        <f>A49</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M45" s="90" t="str">
-        <f>IF(ISBLANK(J49),"--",J49)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N45" s="143" t="str">
@@ -6033,7 +6015,7 @@
         <v>--</v>
       </c>
       <c r="V45" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X45,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W45" s="3" t="e">
@@ -6079,24 +6061,24 @@
       <c r="E46" s="121"/>
       <c r="F46" s="121"/>
       <c r="G46" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H46" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C46&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MZ7_Quote</v>
       </c>
       <c r="I46" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C46&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J46" s="62"/>
       <c r="L46" s="9" t="str">
-        <f>A50</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M46" s="90" t="str">
-        <f>IF(ISBLANK(J50),"--",J50)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N46" s="143" t="str">
@@ -6125,7 +6107,7 @@
         <v>--</v>
       </c>
       <c r="V46" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X46,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W46" s="3" t="e">
@@ -6171,24 +6153,24 @@
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H47" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C47&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MH8_Quote</v>
       </c>
       <c r="I47" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C47&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J47" s="62"/>
       <c r="L47" s="9" t="str">
-        <f>A51</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M47" s="90" t="str">
-        <f>IF(ISBLANK(J51),"--",J51)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N47" s="143" t="str">
@@ -6217,7 +6199,7 @@
         <v>--</v>
       </c>
       <c r="V47" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X47,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W47" s="3" t="e">
@@ -6263,24 +6245,24 @@
       <c r="E48" s="121"/>
       <c r="F48" s="121"/>
       <c r="G48" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H48" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C48&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MM8_Quote</v>
       </c>
       <c r="I48" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C48&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J48" s="62"/>
       <c r="L48" s="9" t="str">
-        <f>A52</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M48" s="90" t="str">
-        <f>IF(ISBLANK(J52),"--",J52)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N48" s="143" t="str">
@@ -6309,7 +6291,7 @@
         <v>--</v>
       </c>
       <c r="V48" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X48,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W48" s="3" t="e">
@@ -6355,24 +6337,24 @@
       <c r="E49" s="121"/>
       <c r="F49" s="121"/>
       <c r="G49" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H49" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C49&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MU8_Quote</v>
       </c>
       <c r="I49" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C49&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J49" s="62"/>
       <c r="L49" s="9" t="str">
-        <f>A53</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M49" s="90" t="str">
-        <f>IF(ISBLANK(J53),"--",J53)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N49" s="143" t="str">
@@ -6401,7 +6383,7 @@
         <v>--</v>
       </c>
       <c r="V49" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X49,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W49" s="3" t="e">
@@ -6447,24 +6429,24 @@
       <c r="E50" s="121"/>
       <c r="F50" s="121"/>
       <c r="G50" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H50" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C50&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MZ8_Quote</v>
       </c>
       <c r="I50" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C50&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J50" s="62"/>
       <c r="L50" s="9" t="str">
-        <f>A54</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M50" s="90" t="str">
-        <f>IF(ISBLANK(J54),"--",J54)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N50" s="143" t="str">
@@ -6493,7 +6475,7 @@
         <v>--</v>
       </c>
       <c r="V50" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X50,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W50" s="3" t="e">
@@ -6539,24 +6521,24 @@
       <c r="E51" s="121"/>
       <c r="F51" s="121"/>
       <c r="G51" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H51" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C51&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MH9_Quote</v>
       </c>
       <c r="I51" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C51&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J51" s="62"/>
       <c r="L51" s="10" t="str">
-        <f>A55</f>
+        <f t="shared" si="13"/>
         <v>FUT</v>
       </c>
       <c r="M51" s="91" t="str">
-        <f>IF(ISBLANK(J55),"--",J55)</f>
+        <f t="shared" si="14"/>
         <v>--</v>
       </c>
       <c r="N51" s="144" t="str">
@@ -6585,7 +6567,7 @@
         <v>--</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X51,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W51" s="3" t="e">
@@ -6631,24 +6613,24 @@
       <c r="E52" s="121"/>
       <c r="F52" s="121"/>
       <c r="G52" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H52" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C52&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MM9_Quote</v>
       </c>
       <c r="I52" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C52&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J52" s="62"/>
       <c r="L52" s="132" t="str">
-        <f>A58</f>
+        <f t="shared" ref="L52:L89" si="19">A58</f>
         <v>Sw</v>
       </c>
       <c r="M52" s="133" t="str">
-        <f>IF(ISBLANK(J58),"--",J58)</f>
+        <f t="shared" ref="M52:M89" si="20">IF(ISBLANK(J58),"--",J58)</f>
         <v>--</v>
       </c>
       <c r="N52" s="145" t="str">
@@ -6677,7 +6659,7 @@
         <v>--</v>
       </c>
       <c r="V52" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X52,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W52" s="3" t="e">
@@ -6723,24 +6705,24 @@
       <c r="E53" s="121"/>
       <c r="F53" s="121"/>
       <c r="G53" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H53" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C53&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MU9_Quote</v>
       </c>
       <c r="I53" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C53&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J53" s="62"/>
       <c r="L53" s="69" t="str">
-        <f>A59</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M53" s="137" t="str">
-        <f>IF(ISBLANK(J59),"--",J59)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N53" s="146" t="str">
@@ -6769,7 +6751,7 @@
         <v>--</v>
       </c>
       <c r="V53" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X53,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W53" s="3" t="e">
@@ -6815,24 +6797,24 @@
       <c r="E54" s="121"/>
       <c r="F54" s="121"/>
       <c r="G54" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H54" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C54&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MZ9_Quote</v>
       </c>
       <c r="I54" s="115" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C54&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J54" s="62"/>
       <c r="L54" s="69" t="str">
-        <f>A60</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M54" s="137" t="str">
-        <f>IF(ISBLANK(J60),"--",J60)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N54" s="146" t="str">
@@ -6861,7 +6843,7 @@
         <v>--</v>
       </c>
       <c r="V54" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X54,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W54" s="3" t="e">
@@ -6907,24 +6889,24 @@
       <c r="E55" s="122"/>
       <c r="F55" s="122"/>
       <c r="G55" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;$G$32</f>
+        <f t="shared" si="15"/>
         <v>GbpLibor3M</v>
       </c>
       <c r="H55" s="116" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C55&amp;QuoteSuffix</f>
+        <f t="shared" si="16"/>
         <v>GBPFUT3MH0_Quote</v>
       </c>
       <c r="I55" s="116" t="str">
-        <f>Currency&amp;"FUT"&amp;$G$32&amp;$C55&amp;"ConvAdj"&amp;QuoteSuffix</f>
+        <f t="shared" si="17"/>
         <v>GBPFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" s="69" t="str">
-        <f>A61</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M55" s="137" t="str">
-        <f>IF(ISBLANK(J61),"--",J61)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N55" s="146" t="str">
@@ -6953,7 +6935,7 @@
         <v>--</v>
       </c>
       <c r="V55" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X55,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W55" s="3" t="e">
@@ -6992,12 +6974,12 @@
         <v>114</v>
       </c>
       <c r="L56" s="69" t="str">
-        <f>A62</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M56" s="137" t="str">
-        <f>IF(ISBLANK(J62),"--",J62)</f>
-        <v>obj_0050c#0016</v>
+        <f t="shared" si="20"/>
+        <v>obj_002df#0002</v>
       </c>
       <c r="N56" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -7005,7 +6987,7 @@
       </c>
       <c r="O56" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>9.6399999999999993E-3</v>
+        <v>9.6200000000000001E-3</v>
       </c>
       <c r="P56" s="138" t="b">
         <v>1</v>
@@ -7018,14 +7000,14 @@
       </c>
       <c r="S56" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T56" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>43003</v>
+        <v>43006</v>
       </c>
       <c r="V56" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X56,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W56" s="3" t="e">
@@ -7088,12 +7070,12 @@
         <v>24</v>
       </c>
       <c r="L57" s="69" t="str">
-        <f>A63</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M57" s="137" t="str">
-        <f>IF(ISBLANK(J63),"--",J63)</f>
-        <v>obj_004fb#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002dc#0002</v>
       </c>
       <c r="N57" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7101,7 +7083,7 @@
       </c>
       <c r="O57" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>1.1520000000000001E-2</v>
+        <v>1.153E-2</v>
       </c>
       <c r="P57" s="138" t="b">
         <v>1</v>
@@ -7114,14 +7096,14 @@
       </c>
       <c r="S57" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T57" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>43367</v>
+        <v>43371</v>
       </c>
       <c r="V57" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X57,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W57" s="3" t="e">
@@ -7172,11 +7154,11 @@
         <v>112</v>
       </c>
       <c r="G58" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" ref="G58:G95" si="21">PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
         <v>GbpLibor6M</v>
       </c>
       <c r="H58" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B58&amp;"_Quote"</f>
+        <f t="shared" ref="H58:H95" si="22">Currency&amp;$G$56&amp;$H$56&amp;$B58&amp;"_Quote"</f>
         <v>GBPSB6L1Y_Quote</v>
       </c>
       <c r="I58" s="124">
@@ -7184,12 +7166,12 @@
       </c>
       <c r="J58" s="57"/>
       <c r="L58" s="69" t="str">
-        <f>A64</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M58" s="137" t="str">
-        <f>IF(ISBLANK(J64),"--",J64)</f>
-        <v>obj_004ff#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002da#0002</v>
       </c>
       <c r="N58" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -7197,7 +7179,7 @@
       </c>
       <c r="O58" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>1.3170000000000001E-2</v>
+        <v>1.3239999999999998E-2</v>
       </c>
       <c r="P58" s="138" t="b">
         <v>1</v>
@@ -7210,14 +7192,14 @@
       </c>
       <c r="S58" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T58" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="V58" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X58,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W58" s="3" t="e">
@@ -7268,11 +7250,11 @@
         <v>112</v>
       </c>
       <c r="G59" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H59" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B59&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L15M_Quote</v>
       </c>
       <c r="I59" s="125">
@@ -7280,12 +7262,12 @@
       </c>
       <c r="J59" s="62"/>
       <c r="L59" s="69" t="str">
-        <f>A65</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M59" s="137" t="str">
-        <f>IF(ISBLANK(J65),"--",J65)</f>
-        <v>obj_004f8#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002eb#0002</v>
       </c>
       <c r="N59" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -7293,7 +7275,7 @@
       </c>
       <c r="O59" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>1.4580000000000003E-2</v>
+        <v>1.4729999999999998E-2</v>
       </c>
       <c r="P59" s="138" t="b">
         <v>1</v>
@@ -7306,14 +7288,14 @@
       </c>
       <c r="S59" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T59" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>44097</v>
+        <v>44102</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X59,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W59" s="3" t="e">
@@ -7364,11 +7346,11 @@
         <v>112</v>
       </c>
       <c r="G60" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H60" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B60&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L18M_Quote</v>
       </c>
       <c r="I60" s="125">
@@ -7376,12 +7358,12 @@
       </c>
       <c r="J60" s="62"/>
       <c r="L60" s="69" t="str">
-        <f>A66</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M60" s="137" t="str">
-        <f>IF(ISBLANK(J66),"--",J66)</f>
-        <v>obj_004f7#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002ec#0002</v>
       </c>
       <c r="N60" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -7389,7 +7371,7 @@
       </c>
       <c r="O60" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>1.5730000000000001E-2</v>
+        <v>1.5939999999999999E-2</v>
       </c>
       <c r="P60" s="138" t="b">
         <v>1</v>
@@ -7402,14 +7384,14 @@
       </c>
       <c r="S60" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T60" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>44462</v>
+        <v>44467</v>
       </c>
       <c r="V60" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X60,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W60" s="3" t="e">
@@ -7460,11 +7442,11 @@
         <v>112</v>
       </c>
       <c r="G61" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H61" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B61&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L21M_Quote</v>
       </c>
       <c r="I61" s="125">
@@ -7472,12 +7454,12 @@
       </c>
       <c r="J61" s="62"/>
       <c r="L61" s="69" t="str">
-        <f>A67</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M61" s="137" t="str">
-        <f>IF(ISBLANK(J67),"--",J67)</f>
-        <v>obj_004fa#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e7#0002</v>
       </c>
       <c r="N61" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -7485,7 +7467,7 @@
       </c>
       <c r="O61" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>1.6669999999999997E-2</v>
+        <v>1.6909999999999998E-2</v>
       </c>
       <c r="P61" s="138" t="b">
         <v>1</v>
@@ -7498,14 +7480,14 @@
       </c>
       <c r="S61" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T61" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>44827</v>
+        <v>44832</v>
       </c>
       <c r="V61" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X61,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W61" s="3" t="e">
@@ -7556,11 +7538,11 @@
         <v>112</v>
       </c>
       <c r="G62" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H62" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B62&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L2Y_Quote</v>
       </c>
       <c r="I62" s="125">
@@ -7568,15 +7550,15 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,0,B62,Calendar,D62,E62,F62,G62,I62,C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050c#0016</v>
+        <v>obj_002df#0002</v>
       </c>
       <c r="L62" s="69" t="str">
-        <f>A68</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M62" s="137" t="str">
-        <f>IF(ISBLANK(J68),"--",J68)</f>
-        <v>obj_0050d#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e4#0002</v>
       </c>
       <c r="N62" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -7584,7 +7566,7 @@
       </c>
       <c r="O62" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>1.745E-2</v>
+        <v>1.771E-2</v>
       </c>
       <c r="P62" s="138" t="b">
         <v>1</v>
@@ -7597,14 +7579,14 @@
       </c>
       <c r="S62" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T62" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="V62" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X62,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W62" s="3" t="e">
@@ -7655,11 +7637,11 @@
         <v>112</v>
       </c>
       <c r="G63" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H63" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B63&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L3Y_Quote</v>
       </c>
       <c r="I63" s="125">
@@ -7667,15 +7649,15 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,0,B63,Calendar,D63,E63,F63,G63,I63,C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fb#0012</v>
+        <v>obj_002dc#0002</v>
       </c>
       <c r="L63" s="69" t="str">
-        <f>A69</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M63" s="137" t="str">
-        <f>IF(ISBLANK(J69),"--",J69)</f>
-        <v>obj_004fd#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e1#0002</v>
       </c>
       <c r="N63" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
@@ -7683,7 +7665,7 @@
       </c>
       <c r="O63" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>1.8100000000000002E-2</v>
+        <v>1.839E-2</v>
       </c>
       <c r="P63" s="138" t="b">
         <v>1</v>
@@ -7696,14 +7678,14 @@
       </c>
       <c r="S63" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T63" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>45558</v>
+        <v>45565</v>
       </c>
       <c r="V63" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X63,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W63" s="3" t="e">
@@ -7754,11 +7736,11 @@
         <v>112</v>
       </c>
       <c r="G64" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H64" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B64&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L4Y_Quote</v>
       </c>
       <c r="I64" s="125">
@@ -7766,15 +7748,15 @@
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,0,B64,Calendar,D64,E64,F64,G64,I64,C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ff#0012</v>
+        <v>obj_002da#0002</v>
       </c>
       <c r="L64" s="69" t="str">
-        <f>A70</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M64" s="137" t="str">
-        <f>IF(ISBLANK(J70),"--",J70)</f>
-        <v>obj_00511#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002de#0002</v>
       </c>
       <c r="N64" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
@@ -7782,7 +7764,7 @@
       </c>
       <c r="O64" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>1.8630000000000001E-2</v>
+        <v>1.8970000000000001E-2</v>
       </c>
       <c r="P64" s="138" t="b">
         <v>1</v>
@@ -7795,14 +7777,14 @@
       </c>
       <c r="S64" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T64" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>45923</v>
+        <v>45929</v>
       </c>
       <c r="V64" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X64,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W64" s="3" t="e">
@@ -7853,11 +7835,11 @@
         <v>112</v>
       </c>
       <c r="G65" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H65" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B65&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L5Y_Quote</v>
       </c>
       <c r="I65" s="125">
@@ -7865,14 +7847,14 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,0,B65,Calendar,D65,E65,F65,G65,I65,C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f8#0012</v>
+        <v>obj_002eb#0002</v>
       </c>
       <c r="L65" s="69" t="str">
-        <f>A71</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M65" s="138" t="str">
-        <f>IF(ISBLANK(J71),"--",J71)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N65" s="146" t="str">
@@ -7901,7 +7883,7 @@
         <v>--</v>
       </c>
       <c r="V65" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X65,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W65" s="3" t="e">
@@ -7952,11 +7934,11 @@
         <v>112</v>
       </c>
       <c r="G66" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H66" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B66&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L6Y_Quote</v>
       </c>
       <c r="I66" s="125">
@@ -7964,15 +7946,15 @@
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,0,B66,Calendar,D66,E66,F66,G66,I66,C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f7#0012</v>
+        <v>obj_002ec#0002</v>
       </c>
       <c r="L66" s="69" t="str">
-        <f>A72</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M66" s="138" t="str">
-        <f>IF(ISBLANK(J72),"--",J72)</f>
-        <v>obj_004fc#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002db#0002</v>
       </c>
       <c r="N66" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -7980,7 +7962,7 @@
       </c>
       <c r="O66" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>1.9540000000000002E-2</v>
+        <v>1.9889999999999998E-2</v>
       </c>
       <c r="P66" s="138" t="b">
         <v>1</v>
@@ -7993,14 +7975,14 @@
       </c>
       <c r="S66" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T66" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>46653</v>
+        <v>46658</v>
       </c>
       <c r="V66" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X66,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W66" s="3" t="e">
@@ -8051,11 +8033,11 @@
         <v>112</v>
       </c>
       <c r="G67" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H67" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B67&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L7Y_Quote</v>
       </c>
       <c r="I67" s="125">
@@ -8063,14 +8045,14 @@
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,0,B67,Calendar,D67,E67,F67,G67,I67,C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fa#0012</v>
+        <v>obj_002e7#0002</v>
       </c>
       <c r="L67" s="69" t="str">
-        <f>A73</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M67" s="138" t="str">
-        <f>IF(ISBLANK(J73),"--",J73)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N67" s="146" t="str">
@@ -8099,7 +8081,7 @@
         <v>--</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X67,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" ref="V67:V89" si="23">IFERROR(INDEX($L$3:$L$89,MATCH(X67,$N$3:$N$89,0),1),"")</f>
         <v/>
       </c>
       <c r="W67" s="3" t="e">
@@ -8150,11 +8132,11 @@
         <v>112</v>
       </c>
       <c r="G68" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H68" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B68&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L8Y_Quote</v>
       </c>
       <c r="I68" s="125">
@@ -8162,14 +8144,14 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,0,B68,Calendar,D68,E68,F68,G68,I68,C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050d#0012</v>
+        <v>obj_002e4#0002</v>
       </c>
       <c r="L68" s="69" t="str">
-        <f>A74</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M68" s="138" t="str">
-        <f>IF(ISBLANK(J74),"--",J74)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N68" s="146" t="str">
@@ -8198,7 +8180,7 @@
         <v>--</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X68,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W68" s="3" t="e">
@@ -8249,11 +8231,11 @@
         <v>112</v>
       </c>
       <c r="G69" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H69" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B69&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L9Y_Quote</v>
       </c>
       <c r="I69" s="125">
@@ -8261,15 +8243,15 @@
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,0,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fd#0012</v>
+        <v>obj_002e1#0002</v>
       </c>
       <c r="L69" s="69" t="str">
-        <f>A75</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M69" s="138" t="str">
-        <f>IF(ISBLANK(J75),"--",J75)</f>
-        <v>obj_0050f#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002d9#0002</v>
       </c>
       <c r="N69" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -8277,7 +8259,7 @@
       </c>
       <c r="O69" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>2.0460000000000002E-2</v>
+        <v>2.0789999999999996E-2</v>
       </c>
       <c r="P69" s="138" t="b">
         <v>1</v>
@@ -8290,14 +8272,14 @@
       </c>
       <c r="S69" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T69" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>47749</v>
+        <v>47756</v>
       </c>
       <c r="V69" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X69,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W69" s="3" t="e">
@@ -8348,11 +8330,11 @@
         <v>112</v>
       </c>
       <c r="G70" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H70" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B70&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L10Y_Quote</v>
       </c>
       <c r="I70" s="125">
@@ -8360,14 +8342,14 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,0,B70,Calendar,D70,E70,F70,G70,I70,C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00511#0012</v>
+        <v>obj_002de#0002</v>
       </c>
       <c r="L70" s="69" t="str">
-        <f>A76</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M70" s="138" t="str">
-        <f>IF(ISBLANK(J76),"--",J76)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N70" s="146" t="str">
@@ -8396,7 +8378,7 @@
         <v>--</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X70,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W70" s="3" t="e">
@@ -8447,11 +8429,11 @@
         <v>112</v>
       </c>
       <c r="G71" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H71" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B71&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L11Y_Quote</v>
       </c>
       <c r="I71" s="125">
@@ -8459,11 +8441,11 @@
       </c>
       <c r="J71" s="62"/>
       <c r="L71" s="69" t="str">
-        <f>A77</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M71" s="138" t="str">
-        <f>IF(ISBLANK(J77),"--",J77)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N71" s="146" t="str">
@@ -8492,7 +8474,7 @@
         <v>--</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X71,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W71" s="3" t="e">
@@ -8543,11 +8525,11 @@
         <v>112</v>
       </c>
       <c r="G72" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H72" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B72&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L12Y_Quote</v>
       </c>
       <c r="I72" s="125">
@@ -8555,14 +8537,14 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,0,B72,Calendar,D72,E72,F72,G72,I72,C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fc#0012</v>
+        <v>obj_002db#0002</v>
       </c>
       <c r="L72" s="69" t="str">
-        <f>A78</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M72" s="138" t="str">
-        <f>IF(ISBLANK(J78),"--",J78)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N72" s="146" t="str">
@@ -8591,7 +8573,7 @@
         <v>--</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X72,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W72" s="3" t="e">
@@ -8642,11 +8624,11 @@
         <v>112</v>
       </c>
       <c r="G73" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H73" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B73&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L13Y_Quote</v>
       </c>
       <c r="I73" s="125">
@@ -8654,11 +8636,11 @@
       </c>
       <c r="J73" s="62"/>
       <c r="L73" s="69" t="str">
-        <f>A79</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M73" s="138" t="str">
-        <f>IF(ISBLANK(J79),"--",J79)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N73" s="146" t="str">
@@ -8687,7 +8669,7 @@
         <v>--</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X73,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W73" s="3" t="e">
@@ -8738,11 +8720,11 @@
         <v>112</v>
       </c>
       <c r="G74" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H74" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B74&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L14Y_Quote</v>
       </c>
       <c r="I74" s="125">
@@ -8750,12 +8732,12 @@
       </c>
       <c r="J74" s="62"/>
       <c r="L74" s="69" t="str">
-        <f>A80</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M74" s="138" t="str">
-        <f>IF(ISBLANK(J80),"--",J80)</f>
-        <v>obj_004fe#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002ea#0002</v>
       </c>
       <c r="N74" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -8763,7 +8745,7 @@
       </c>
       <c r="O74" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>2.1150000000000002E-2</v>
+        <v>2.1440000000000001E-2</v>
       </c>
       <c r="P74" s="138" t="b">
         <v>1</v>
@@ -8776,14 +8758,14 @@
       </c>
       <c r="S74" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T74" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>49576</v>
+        <v>49580</v>
       </c>
       <c r="V74" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X74,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W74" s="3" t="e">
@@ -8834,11 +8816,11 @@
         <v>112</v>
       </c>
       <c r="G75" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H75" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B75&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L15Y_Quote</v>
       </c>
       <c r="I75" s="125">
@@ -8846,14 +8828,14 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,0,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050f#0012</v>
+        <v>obj_002d9#0002</v>
       </c>
       <c r="L75" s="69" t="str">
-        <f>A81</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M75" s="138" t="str">
-        <f>IF(ISBLANK(J81),"--",J81)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N75" s="146" t="str">
@@ -8882,7 +8864,7 @@
         <v>--</v>
       </c>
       <c r="V75" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X75,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W75" s="3" t="e">
@@ -8933,11 +8915,11 @@
         <v>112</v>
       </c>
       <c r="G76" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H76" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B76&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L16Y_Quote</v>
       </c>
       <c r="I76" s="125">
@@ -8945,11 +8927,11 @@
       </c>
       <c r="J76" s="62"/>
       <c r="L76" s="69" t="str">
-        <f>A82</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M76" s="138" t="str">
-        <f>IF(ISBLANK(J82),"--",J82)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N76" s="146" t="str">
@@ -8978,7 +8960,7 @@
         <v>--</v>
       </c>
       <c r="V76" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X76,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W76" s="3" t="e">
@@ -9029,11 +9011,11 @@
         <v>112</v>
       </c>
       <c r="G77" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H77" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B77&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L17Y_Quote</v>
       </c>
       <c r="I77" s="125">
@@ -9041,11 +9023,11 @@
       </c>
       <c r="J77" s="62"/>
       <c r="L77" s="69" t="str">
-        <f>A83</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M77" s="138" t="str">
-        <f>IF(ISBLANK(J83),"--",J83)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N77" s="146" t="str">
@@ -9074,7 +9056,7 @@
         <v>--</v>
       </c>
       <c r="V77" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X77,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W77" s="3" t="e">
@@ -9125,11 +9107,11 @@
         <v>112</v>
       </c>
       <c r="G78" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H78" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B78&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L18Y_Quote</v>
       </c>
       <c r="I78" s="125">
@@ -9137,11 +9119,11 @@
       </c>
       <c r="J78" s="62"/>
       <c r="L78" s="69" t="str">
-        <f>A84</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M78" s="138" t="str">
-        <f>IF(ISBLANK(J84),"--",J84)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N78" s="146" t="str">
@@ -9170,7 +9152,7 @@
         <v>--</v>
       </c>
       <c r="V78" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X78,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W78" s="3" t="e">
@@ -9221,11 +9203,11 @@
         <v>112</v>
       </c>
       <c r="G79" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H79" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B79&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L19Y_Quote</v>
       </c>
       <c r="I79" s="125">
@@ -9233,12 +9215,12 @@
       </c>
       <c r="J79" s="62"/>
       <c r="L79" s="69" t="str">
-        <f>A85</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M79" s="138" t="str">
-        <f>IF(ISBLANK(J85),"--",J85)</f>
-        <v>obj_0050a#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e9#0002</v>
       </c>
       <c r="N79" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9246,7 +9228,7 @@
       </c>
       <c r="O79" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>2.1219999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="P79" s="138" t="b">
         <v>1</v>
@@ -9259,14 +9241,14 @@
       </c>
       <c r="S79" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T79" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>51403</v>
+        <v>51407</v>
       </c>
       <c r="V79" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X79,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W79" s="3" t="e">
@@ -9317,11 +9299,11 @@
         <v>112</v>
       </c>
       <c r="G80" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H80" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B80&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L20Y_Quote</v>
       </c>
       <c r="I80" s="125">
@@ -9329,14 +9311,14 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,0,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fe#0012</v>
+        <v>obj_002ea#0002</v>
       </c>
       <c r="L80" s="69" t="str">
-        <f>A86</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M80" s="138" t="str">
-        <f>IF(ISBLANK(J86),"--",J86)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N80" s="146" t="str">
@@ -9365,7 +9347,7 @@
         <v>--</v>
       </c>
       <c r="V80" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X80,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W80" s="3" t="e">
@@ -9416,11 +9398,11 @@
         <v>112</v>
       </c>
       <c r="G81" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H81" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B81&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L21Y_Quote</v>
       </c>
       <c r="I81" s="125">
@@ -9428,11 +9410,11 @@
       </c>
       <c r="J81" s="62"/>
       <c r="L81" s="69" t="str">
-        <f>A87</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M81" s="138" t="str">
-        <f>IF(ISBLANK(J87),"--",J87)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N81" s="146" t="str">
@@ -9461,7 +9443,7 @@
         <v>--</v>
       </c>
       <c r="V81" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X81,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W81" s="3" t="e">
@@ -9512,11 +9494,11 @@
         <v>112</v>
       </c>
       <c r="G82" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H82" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B82&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L22Y_Quote</v>
       </c>
       <c r="I82" s="125">
@@ -9524,11 +9506,11 @@
       </c>
       <c r="J82" s="62"/>
       <c r="L82" s="69" t="str">
-        <f>A88</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M82" s="138" t="str">
-        <f>IF(ISBLANK(J88),"--",J88)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N82" s="146" t="str">
@@ -9557,7 +9539,7 @@
         <v>--</v>
       </c>
       <c r="V82" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X82,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W82" s="3" t="e">
@@ -9608,11 +9590,11 @@
         <v>112</v>
       </c>
       <c r="G83" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H83" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B83&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L23Y_Quote</v>
       </c>
       <c r="I83" s="125">
@@ -9620,11 +9602,11 @@
       </c>
       <c r="J83" s="62"/>
       <c r="L83" s="69" t="str">
-        <f>A89</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M83" s="138" t="str">
-        <f>IF(ISBLANK(J89),"--",J89)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N83" s="146" t="str">
@@ -9653,7 +9635,7 @@
         <v>--</v>
       </c>
       <c r="V83" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X83,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W83" s="3" t="e">
@@ -9704,11 +9686,11 @@
         <v>112</v>
       </c>
       <c r="G84" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H84" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B84&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L24Y_Quote</v>
       </c>
       <c r="I84" s="125">
@@ -9716,12 +9698,12 @@
       </c>
       <c r="J84" s="62"/>
       <c r="L84" s="69" t="str">
-        <f>A90</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M84" s="138" t="str">
-        <f>IF(ISBLANK(J90),"--",J90)</f>
-        <v>obj_00501#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e6#0002</v>
       </c>
       <c r="N84" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
@@ -9729,7 +9711,7 @@
       </c>
       <c r="O84" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>2.1189999999999997E-2</v>
+        <v>2.145E-2</v>
       </c>
       <c r="P84" s="138" t="b">
         <v>1</v>
@@ -9742,14 +9724,14 @@
       </c>
       <c r="S84" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T84" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>53230</v>
+        <v>53233</v>
       </c>
       <c r="V84" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X84,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W84" s="3" t="e">
@@ -9800,11 +9782,11 @@
         <v>112</v>
       </c>
       <c r="G85" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H85" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B85&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L25Y_Quote</v>
       </c>
       <c r="I85" s="125">
@@ -9812,14 +9794,14 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,0,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050a#0012</v>
+        <v>obj_002e9#0002</v>
       </c>
       <c r="L85" s="69" t="str">
-        <f>A91</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M85" s="138" t="str">
-        <f>IF(ISBLANK(J91),"--",J91)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N85" s="146" t="str">
@@ -9848,7 +9830,7 @@
         <v>--</v>
       </c>
       <c r="V85" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X85,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W85" s="3" t="e">
@@ -9899,11 +9881,11 @@
         <v>112</v>
       </c>
       <c r="G86" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H86" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B86&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L26Y_Quote</v>
       </c>
       <c r="I86" s="125">
@@ -9911,12 +9893,12 @@
       </c>
       <c r="J86" s="62"/>
       <c r="L86" s="69" t="str">
-        <f>A92</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M86" s="138" t="str">
-        <f>IF(ISBLANK(J92),"--",J92)</f>
-        <v>obj_004f5#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e3#0002</v>
       </c>
       <c r="N86" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
@@ -9924,7 +9906,7 @@
       </c>
       <c r="O86" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>2.077E-2</v>
+        <v>2.0959999999999999E-2</v>
       </c>
       <c r="P86" s="138" t="b">
         <v>1</v>
@@ -9937,14 +9919,14 @@
       </c>
       <c r="S86" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T86" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>56880</v>
+        <v>56885</v>
       </c>
       <c r="V86" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X86,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W86" s="3" t="e">
@@ -9995,11 +9977,11 @@
         <v>112</v>
       </c>
       <c r="G87" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H87" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B87&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L27Y_Quote</v>
       </c>
       <c r="I87" s="125">
@@ -10007,11 +9989,11 @@
       </c>
       <c r="J87" s="62"/>
       <c r="L87" s="69" t="str">
-        <f>A93</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M87" s="138" t="str">
-        <f>IF(ISBLANK(J93),"--",J93)</f>
+        <f t="shared" si="20"/>
         <v>--</v>
       </c>
       <c r="N87" s="146" t="str">
@@ -10040,7 +10022,7 @@
         <v>--</v>
       </c>
       <c r="V87" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X87,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W87" s="3" t="e">
@@ -10091,11 +10073,11 @@
         <v>112</v>
       </c>
       <c r="G88" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H88" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B88&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L28Y_Quote</v>
       </c>
       <c r="I88" s="125">
@@ -10106,12 +10088,12 @@
         <v>34</v>
       </c>
       <c r="L88" s="69" t="str">
-        <f>A94</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M88" s="138" t="str">
-        <f>IF(ISBLANK(J94),"--",J94)</f>
-        <v>obj_00508#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002e0#0002</v>
       </c>
       <c r="N88" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
@@ -10119,7 +10101,7 @@
       </c>
       <c r="O88" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>2.036E-2</v>
+        <v>2.051E-2</v>
       </c>
       <c r="P88" s="138" t="b">
         <v>1</v>
@@ -10132,14 +10114,14 @@
       </c>
       <c r="S88" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T88" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>60533</v>
+        <v>60538</v>
       </c>
       <c r="V88" s="3" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X88,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W88" s="3" t="e">
@@ -10190,11 +10172,11 @@
         <v>112</v>
       </c>
       <c r="G89" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H89" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B89&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L29Y_Quote</v>
       </c>
       <c r="I89" s="125">
@@ -10202,12 +10184,12 @@
       </c>
       <c r="J89" s="62"/>
       <c r="L89" s="70" t="str">
-        <f>A95</f>
+        <f t="shared" si="19"/>
         <v>Sw</v>
       </c>
       <c r="M89" s="141" t="str">
-        <f>IF(ISBLANK(J95),"--",J95)</f>
-        <v>obj_00502#0012</v>
+        <f t="shared" si="20"/>
+        <v>obj_002dd#0002</v>
       </c>
       <c r="N89" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
@@ -10215,7 +10197,7 @@
       </c>
       <c r="O89" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>2.0300000000000002E-2</v>
+        <v>2.0449999999999999E-2</v>
       </c>
       <c r="P89" s="141" t="b">
         <v>1</v>
@@ -10228,14 +10210,14 @@
       </c>
       <c r="S89" s="150">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="T89" s="150">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>64185</v>
+        <v>64192</v>
       </c>
       <c r="V89" s="5" t="str">
-        <f>IFERROR(INDEX($L$3:$L$89,MATCH(X89,$N$3:$N$89,0),1),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W89" s="5" t="e">
@@ -10286,11 +10268,11 @@
         <v>112</v>
       </c>
       <c r="G90" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H90" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B90&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L30Y_Quote</v>
       </c>
       <c r="I90" s="125">
@@ -10298,7 +10280,7 @@
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,0,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00501#0012</v>
+        <v>obj_002e6#0002</v>
       </c>
       <c r="AD90" s="158"/>
     </row>
@@ -10322,11 +10304,11 @@
         <v>112</v>
       </c>
       <c r="G91" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H91" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B91&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L35Y_Quote</v>
       </c>
       <c r="I91" s="125">
@@ -10355,11 +10337,11 @@
         <v>112</v>
       </c>
       <c r="G92" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H92" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B92&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L40Y_Quote</v>
       </c>
       <c r="I92" s="123">
@@ -10367,7 +10349,7 @@
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,0,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f5#0012</v>
+        <v>obj_002e3#0002</v>
       </c>
       <c r="AD92" s="158"/>
     </row>
@@ -10391,11 +10373,11 @@
         <v>112</v>
       </c>
       <c r="G93" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H93" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B93&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L45Y_Quote</v>
       </c>
       <c r="I93" s="123">
@@ -10424,11 +10406,11 @@
         <v>112</v>
       </c>
       <c r="G94" s="60" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H94" s="58" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B94&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L50Y_Quote</v>
       </c>
       <c r="I94" s="123">
@@ -10436,7 +10418,7 @@
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,0,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00508#0012</v>
+        <v>obj_002e0#0002</v>
       </c>
       <c r="AD94" s="158"/>
     </row>
@@ -10460,11 +10442,11 @@
         <v>112</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;SUBSTITUTE($H$56,"L","M")</f>
+        <f t="shared" si="21"/>
         <v>GbpLibor6M</v>
       </c>
       <c r="H95" s="1" t="str">
-        <f>Currency&amp;$G$56&amp;$H$56&amp;$B95&amp;"_Quote"</f>
+        <f t="shared" si="22"/>
         <v>GBPSB6L60Y_Quote</v>
       </c>
       <c r="I95" s="126">
@@ -10472,7 +10454,7 @@
       </c>
       <c r="J95" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H95,0,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00502#0012</v>
+        <v>obj_002dd#0002</v>
       </c>
       <c r="AD95" s="158"/>
     </row>

--- a/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_YCSTDBootstrapping.xlsx
@@ -1281,6 +1281,7 @@
       <sheetName val="Swap3MSemiAnnual"/>
       <sheetName val="Swap6M"/>
       <sheetName val="SwapsIMMDated"/>
+      <sheetName val="LiborSwapIsda"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1307,6 +1308,7 @@
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1653,7 +1655,9 @@
       <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21">
+        <v>42278.640648148146</v>
+      </c>
       <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1720,7 +1724,7 @@
       </c>
       <c r="D12" s="13">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="E12" s="80"/>
     </row>
@@ -1731,7 +1735,7 @@
       </c>
       <c r="D13" s="15">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"0D","F",,Trigger)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="E13" s="80"/>
     </row>
@@ -1764,7 +1768,7 @@
       </c>
       <c r="D18" s="41" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D20,D21,Calendar,_xll.ohPack(RateHelpersSTD),,,,D22,D23,D24,Permanent,,ObjectOverwrite)</f>
-        <v>_GBPSTD#0002</v>
+        <v>_GBPSTD#0000</v>
       </c>
       <c r="E18" s="42"/>
     </row>
@@ -1842,7 +1846,7 @@
       <c r="B26" s="23"/>
       <c r="C26" s="32">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_STD)</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="D26" s="33">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C26,,Trigger)</f>
@@ -1855,11 +1859,11 @@
       <c r="B27" s="23"/>
       <c r="C27" s="34">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_STD,Trigger)</f>
-        <v>64199</v>
+        <v>64200</v>
       </c>
       <c r="D27" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_STD,C27,,Trigger)</f>
-        <v>0.29904858785539268</v>
+        <v>0.30871717939778753</v>
       </c>
       <c r="E27" s="42"/>
     </row>
@@ -1881,7 +1885,8 @@
         <v>101</v>
       </c>
       <c r="D29" s="37" t="b">
-        <v>0</v>
+        <f>_xll.qlExtrapolatorEnableExtrapolation(YieldCurve_STD,TRUE,Trigger)</f>
+        <v>1</v>
       </c>
       <c r="E29" s="42"/>
     </row>
@@ -2073,7 +2078,7 @@
       </c>
       <c r="AC2" s="155">
         <f t="array" ref="AC2:AC89">_xll.qlPiecewiseYieldCurveData(YieldCurve_STD,Trigger)</f>
-        <v>4.8124682740494111E-3</v>
+        <v>4.8124682740494128E-3</v>
       </c>
       <c r="AE2" s="161" t="s">
         <v>71</v>
@@ -2097,7 +2102,7 @@
       <c r="F3" s="120"/>
       <c r="G3" s="109" t="str">
         <f>_xll.qlLibor(,Currency,C3,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e8#0002</v>
+        <v>obj_00358#0000</v>
       </c>
       <c r="H3" s="117" t="str">
         <f t="shared" ref="H3:H11" si="1">Currency&amp;$B3&amp;"D"&amp;$H$1&amp;QuoteSuffix</f>
@@ -2106,7 +2111,7 @@
       <c r="I3" s="120"/>
       <c r="J3" s="110" t="str">
         <f>_xll.qlDepositRateHelper(,H3,G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f5#0002</v>
+        <v>obj_00372#0000</v>
       </c>
       <c r="K3" s="49"/>
       <c r="L3" s="66" t="str">
@@ -2115,7 +2120,7 @@
       </c>
       <c r="M3" s="128" t="str">
         <f>IF(ISBLANK(J3),"--",J3)</f>
-        <v>obj_002f5#0002</v>
+        <v>obj_00372#0000</v>
       </c>
       <c r="N3" s="142" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M3,Trigger),"--")</f>
@@ -2123,7 +2128,7 @@
       </c>
       <c r="O3" s="130">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M3,Trigger),"--")</f>
-        <v>4.8124999999999999E-3</v>
+        <v>4.8125000000000008E-3</v>
       </c>
       <c r="P3" s="129" t="b">
         <v>1</v>
@@ -2136,11 +2141,11 @@
       </c>
       <c r="S3" s="131">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M3,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T3" s="131">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M3,Trigger),"--")</f>
-        <v>42276</v>
+        <v>42279</v>
       </c>
       <c r="U3" s="159"/>
       <c r="V3" s="160" t="str">
@@ -2149,7 +2154,7 @@
       </c>
       <c r="W3" s="3" t="str">
         <f t="array" ref="W3:W89">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_002f5</v>
+        <v>obj_00372</v>
       </c>
       <c r="X3" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -2157,7 +2162,7 @@
       </c>
       <c r="Y3" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>4.8124999999999999E-3</v>
+        <v>4.8125000000000008E-3</v>
       </c>
       <c r="Z3" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -2165,14 +2170,14 @@
       </c>
       <c r="AA3" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB3" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42276</v>
+        <v>42279</v>
       </c>
       <c r="AC3" s="68">
-        <v>4.8124682740494111E-3</v>
+        <v>4.8124682740494128E-3</v>
       </c>
       <c r="AD3" s="158"/>
       <c r="AE3" s="103" t="s">
@@ -2199,7 +2204,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="55" t="str">
         <f>_xll.qlLibor(,Currency,C4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e5#0002</v>
+        <v>obj_00366#0000</v>
       </c>
       <c r="H4" s="153" t="str">
         <f t="shared" si="1"/>
@@ -2247,7 +2252,7 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="3" t="str">
-        <v>obj_002f2</v>
+        <v>obj_00370</v>
       </c>
       <c r="X4" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -2263,11 +2268,11 @@
       </c>
       <c r="AA4" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB4" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="AC4" s="68">
         <v>4.8985698943041205E-3</v>
@@ -2297,7 +2302,7 @@
       <c r="F5" s="122"/>
       <c r="G5" s="6" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e2#0002</v>
+        <v>obj_0035d#0000</v>
       </c>
       <c r="H5" s="119" t="str">
         <f t="shared" si="1"/>
@@ -2345,7 +2350,7 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="3" t="str">
-        <v>obj_002f3</v>
+        <v>obj_00371</v>
       </c>
       <c r="X5" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -2353,7 +2358,7 @@
       </c>
       <c r="Y5" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>5.0943999999999998E-3</v>
+        <v>5.0819000000000003E-3</v>
       </c>
       <c r="Z5" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -2361,14 +2366,14 @@
       </c>
       <c r="AA5" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB5" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42305</v>
+        <v>42310</v>
       </c>
       <c r="AC5" s="68">
-        <v>5.0933337396311534E-3</v>
+        <v>5.0807682503300139E-3</v>
       </c>
       <c r="AD5" s="158"/>
       <c r="AE5" s="103" t="s">
@@ -2404,7 +2409,7 @@
       <c r="I6" s="121"/>
       <c r="J6" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H6,G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f2#0002</v>
+        <v>obj_00370#0000</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="9" t="str">
@@ -2413,7 +2418,7 @@
       </c>
       <c r="M6" s="90" t="str">
         <f t="shared" si="4"/>
-        <v>obj_002f2#0002</v>
+        <v>obj_00370#0000</v>
       </c>
       <c r="N6" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M6,Trigger),"--")</f>
@@ -2434,11 +2439,11 @@
       </c>
       <c r="S6" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M6,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T6" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M6,Trigger),"--")</f>
-        <v>42282</v>
+        <v>42285</v>
       </c>
       <c r="U6" s="159"/>
       <c r="V6" s="3" t="str">
@@ -2446,7 +2451,7 @@
         <v>Dp</v>
       </c>
       <c r="W6" s="3" t="str">
-        <v>obj_002f4</v>
+        <v>obj_00373</v>
       </c>
       <c r="X6" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -2454,7 +2459,7 @@
       </c>
       <c r="Y6" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>5.4175000000000004E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="Z6" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -2462,14 +2467,14 @@
       </c>
       <c r="AA6" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB6" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="AC6" s="68">
-        <v>5.4149686925188349E-3</v>
+        <v>5.377582807151054E-3</v>
       </c>
       <c r="AD6" s="158"/>
       <c r="AE6" s="103" t="s">
@@ -2505,7 +2510,7 @@
       <c r="I7" s="121"/>
       <c r="J7" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f3#0002</v>
+        <v>obj_00371#0000</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="9" t="str">
@@ -2514,7 +2519,7 @@
       </c>
       <c r="M7" s="90" t="str">
         <f>IF(ISBLANK(J7),"--",J7)</f>
-        <v>obj_002f3#0002</v>
+        <v>obj_00371#0000</v>
       </c>
       <c r="N7" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -2522,7 +2527,7 @@
       </c>
       <c r="O7" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>5.0943999999999998E-3</v>
+        <v>5.0819000000000003E-3</v>
       </c>
       <c r="P7" s="93" t="b">
         <v>1</v>
@@ -2535,11 +2540,11 @@
       </c>
       <c r="S7" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T7" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42305</v>
+        <v>42310</v>
       </c>
       <c r="U7" s="159"/>
       <c r="V7" s="3" t="str">
@@ -2547,7 +2552,7 @@
         <v>Dp</v>
       </c>
       <c r="W7" s="3" t="str">
-        <v>obj_002f1</v>
+        <v>obj_0036f</v>
       </c>
       <c r="X7" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -2555,7 +2560,7 @@
       </c>
       <c r="Y7" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>5.8312999999999993E-3</v>
+        <v>5.8688000000000004E-3</v>
       </c>
       <c r="Z7" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -2563,14 +2568,14 @@
       </c>
       <c r="AA7" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB7" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="AC7" s="68">
-        <v>5.827018751420999E-3</v>
+        <v>5.8643222752831087E-3</v>
       </c>
       <c r="AD7" s="158"/>
       <c r="AH7" s="156"/>
@@ -2600,7 +2605,7 @@
       <c r="I8" s="121"/>
       <c r="J8" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f4#0002</v>
+        <v>obj_00373#0000</v>
       </c>
       <c r="K8" s="48"/>
       <c r="L8" s="9" t="str">
@@ -2609,7 +2614,7 @@
       </c>
       <c r="M8" s="90" t="str">
         <f>IF(ISBLANK(J8),"--",J8)</f>
-        <v>obj_002f4#0002</v>
+        <v>obj_00373#0000</v>
       </c>
       <c r="N8" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -2617,7 +2622,7 @@
       </c>
       <c r="O8" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>5.4175000000000004E-3</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="P8" s="93" t="b">
         <v>1</v>
@@ -2630,11 +2635,11 @@
       </c>
       <c r="S8" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T8" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="U8" s="159"/>
       <c r="V8" s="3" t="str">
@@ -2642,7 +2647,7 @@
         <v>Dp</v>
       </c>
       <c r="W8" s="3" t="str">
-        <v>obj_002f0</v>
+        <v>obj_0036e</v>
       </c>
       <c r="X8" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -2650,7 +2655,7 @@
       </c>
       <c r="Y8" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>7.4999999999999997E-3</v>
+        <v>7.5250000000000004E-3</v>
       </c>
       <c r="Z8" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -2658,14 +2663,14 @@
       </c>
       <c r="AA8" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB8" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="AC8" s="68">
-        <v>7.4859342223137105E-3</v>
+        <v>7.51084041211845E-3</v>
       </c>
       <c r="AD8" s="158"/>
       <c r="AH8" s="156"/>
@@ -2695,7 +2700,7 @@
       <c r="I9" s="121"/>
       <c r="J9" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f1#0002</v>
+        <v>obj_0036f#0000</v>
       </c>
       <c r="K9" s="48"/>
       <c r="L9" s="9" t="str">
@@ -2704,7 +2709,7 @@
       </c>
       <c r="M9" s="90" t="str">
         <f>IF(ISBLANK(J9),"--",J9)</f>
-        <v>obj_002f1#0002</v>
+        <v>obj_0036f#0000</v>
       </c>
       <c r="N9" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -2712,7 +2717,7 @@
       </c>
       <c r="O9" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>5.8312999999999993E-3</v>
+        <v>5.8688000000000004E-3</v>
       </c>
       <c r="P9" s="93" t="b">
         <v>1</v>
@@ -2725,11 +2730,11 @@
       </c>
       <c r="S9" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T9" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42367</v>
+        <v>42373</v>
       </c>
       <c r="U9" s="159"/>
       <c r="V9" s="3" t="str">
@@ -2737,7 +2742,7 @@
         <v>FRA</v>
       </c>
       <c r="W9" s="3" t="str">
-        <v>obj_002ef</v>
+        <v>obj_0036c</v>
       </c>
       <c r="X9" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -2745,7 +2750,7 @@
       </c>
       <c r="Y9" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>8.3000000000000001E-3</v>
+        <v>8.1499999999999993E-3</v>
       </c>
       <c r="Z9" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -2753,14 +2758,14 @@
       </c>
       <c r="AA9" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="AB9" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42641</v>
+        <v>42646</v>
       </c>
       <c r="AC9" s="68">
-        <v>7.8809921683530675E-3</v>
+        <v>7.8237179931759885E-3</v>
       </c>
       <c r="AD9" s="158"/>
       <c r="AH9" s="156"/>
@@ -2790,7 +2795,7 @@
       <c r="I10" s="121"/>
       <c r="J10" s="62" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f0#0002</v>
+        <v>obj_0036e#0000</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>34</v>
@@ -2801,7 +2806,7 @@
       </c>
       <c r="M10" s="90" t="str">
         <f>IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_002f0#0002</v>
+        <v>obj_0036e#0000</v>
       </c>
       <c r="N10" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -2809,7 +2814,7 @@
       </c>
       <c r="O10" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>7.4999999999999997E-3</v>
+        <v>7.5250000000000004E-3</v>
       </c>
       <c r="P10" s="93" t="b">
         <v>1</v>
@@ -2822,11 +2827,11 @@
       </c>
       <c r="S10" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T10" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="U10" s="159"/>
       <c r="V10" s="3" t="str">
@@ -2834,7 +2839,7 @@
         <v>FRA</v>
       </c>
       <c r="W10" s="3" t="str">
-        <v>obj_002ee</v>
+        <v>obj_0036d</v>
       </c>
       <c r="X10" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -2842,7 +2847,7 @@
       </c>
       <c r="Y10" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>9.1999999999999998E-3</v>
+        <v>8.9499999999999996E-3</v>
       </c>
       <c r="Z10" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -2850,14 +2855,14 @@
       </c>
       <c r="AA10" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42549</v>
+        <v>42552</v>
       </c>
       <c r="AB10" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42732</v>
+        <v>42738</v>
       </c>
       <c r="AC10" s="68">
-        <v>8.281624008216238E-3</v>
+        <v>8.1762058891630407E-3</v>
       </c>
       <c r="AD10" s="158"/>
       <c r="AH10" s="156"/>
@@ -2926,7 +2931,7 @@
         <v>FRA</v>
       </c>
       <c r="W11" s="3" t="str">
-        <v>obj_002ed</v>
+        <v>obj_0036b</v>
       </c>
       <c r="X11" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -2934,7 +2939,7 @@
       </c>
       <c r="Y11" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>1.0249999999999999E-2</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="Z11" s="100" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -2942,14 +2947,14 @@
       </c>
       <c r="AA11" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42641</v>
+        <v>42646</v>
       </c>
       <c r="AB11" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42822</v>
+        <v>42828</v>
       </c>
       <c r="AC11" s="68">
-        <v>8.6562962460538153E-3</v>
+        <v>8.5191831865918579E-3</v>
       </c>
       <c r="AD11" s="158"/>
       <c r="AH11" s="156"/>
@@ -3003,7 +3008,7 @@
         <v>Sw</v>
       </c>
       <c r="W12" s="3" t="str">
-        <v>obj_002df</v>
+        <v>obj_00369</v>
       </c>
       <c r="X12" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -3011,7 +3016,7 @@
       </c>
       <c r="Y12" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>9.6200000000000001E-3</v>
+        <v>9.4600000000000014E-3</v>
       </c>
       <c r="Z12" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -3019,14 +3024,14 @@
       </c>
       <c r="AA12" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB12" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>43006</v>
+        <v>43010</v>
       </c>
       <c r="AC12" s="68">
-        <v>9.607007591611736E-3</v>
+        <v>9.4471120536884553E-3</v>
       </c>
       <c r="AD12" s="158"/>
       <c r="AH12" s="156"/>
@@ -3093,7 +3098,7 @@
         <v>Sw</v>
       </c>
       <c r="W13" s="3" t="str">
-        <v>obj_002dc</v>
+        <v>obj_00362</v>
       </c>
       <c r="X13" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -3101,7 +3106,7 @@
       </c>
       <c r="Y13" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>1.153E-2</v>
+        <v>1.1280000000000002E-2</v>
       </c>
       <c r="Z13" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -3109,14 +3114,14 @@
       </c>
       <c r="AA13" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB13" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>43371</v>
+        <v>43374</v>
       </c>
       <c r="AC13" s="68">
-        <v>1.1528005147667124E-2</v>
+        <v>1.1277376742534442E-2</v>
       </c>
       <c r="AD13" s="158"/>
       <c r="AH13" s="156"/>
@@ -3184,7 +3189,7 @@
         <v>Sw</v>
       </c>
       <c r="W14" s="3" t="str">
-        <v>obj_002da</v>
+        <v>obj_0035c</v>
       </c>
       <c r="X14" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -3192,7 +3197,7 @@
       </c>
       <c r="Y14" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.3239999999999998E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="Z14" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -3200,14 +3205,14 @@
       </c>
       <c r="AA14" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB14" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="AC14" s="68">
-        <v>1.3258170998812709E-2</v>
+        <v>1.296682672564657E-2</v>
       </c>
       <c r="AD14" s="158"/>
       <c r="AH14" s="156"/>
@@ -3275,7 +3280,7 @@
         <v>Sw</v>
       </c>
       <c r="W15" s="3" t="str">
-        <v>obj_002eb</v>
+        <v>obj_00361</v>
       </c>
       <c r="X15" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -3283,7 +3288,7 @@
       </c>
       <c r="Y15" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.4729999999999998E-2</v>
+        <v>1.435E-2</v>
       </c>
       <c r="Z15" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -3291,14 +3296,14 @@
       </c>
       <c r="AA15" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB15" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>44102</v>
+        <v>44105</v>
       </c>
       <c r="AC15" s="68">
-        <v>1.4776629436712443E-2</v>
+        <v>1.4392201450768994E-2</v>
       </c>
       <c r="AD15" s="158"/>
       <c r="AH15" s="156"/>
@@ -3366,7 +3371,7 @@
         <v>Sw</v>
       </c>
       <c r="W16" s="3" t="str">
-        <v>obj_002ec</v>
+        <v>obj_00364</v>
       </c>
       <c r="X16" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -3374,7 +3379,7 @@
       </c>
       <c r="Y16" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.5939999999999999E-2</v>
+        <v>1.5500000000000003E-2</v>
       </c>
       <c r="Z16" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -3382,14 +3387,14 @@
       </c>
       <c r="AA16" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB16" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>44467</v>
+        <v>44470</v>
       </c>
       <c r="AC16" s="68">
-        <v>1.601781427734926E-2</v>
+        <v>1.5570756462400031E-2</v>
       </c>
       <c r="AD16" s="158"/>
       <c r="AH16" s="156"/>
@@ -3425,7 +3430,7 @@
       </c>
       <c r="M17" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_002ef#0002</v>
+        <v>obj_0036c#0000</v>
       </c>
       <c r="N17" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -3433,7 +3438,7 @@
       </c>
       <c r="O17" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>8.3000000000000001E-3</v>
+        <v>8.1499999999999993E-3</v>
       </c>
       <c r="P17" s="93" t="b">
         <v>1</v>
@@ -3446,18 +3451,18 @@
       </c>
       <c r="S17" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42458</v>
+        <v>42461</v>
       </c>
       <c r="T17" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42641</v>
+        <v>42646</v>
       </c>
       <c r="V17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W17" s="3" t="str">
-        <v>obj_002e7</v>
+        <v>obj_0036a</v>
       </c>
       <c r="X17" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -3465,7 +3470,7 @@
       </c>
       <c r="Y17" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.6909999999999998E-2</v>
+        <v>1.6449999999999999E-2</v>
       </c>
       <c r="Z17" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -3473,14 +3478,14 @@
       </c>
       <c r="AA17" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB17" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>44832</v>
+        <v>44837</v>
       </c>
       <c r="AC17" s="68">
-        <v>1.7018843150330219E-2</v>
+        <v>1.6550478993819475E-2</v>
       </c>
       <c r="AD17" s="158"/>
       <c r="AH17" s="156"/>
@@ -3548,7 +3553,7 @@
         <v>Sw</v>
       </c>
       <c r="W18" s="3" t="str">
-        <v>obj_002e4</v>
+        <v>obj_00363</v>
       </c>
       <c r="X18" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -3556,7 +3561,7 @@
       </c>
       <c r="Y18" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.771E-2</v>
+        <v>1.7230000000000002E-2</v>
       </c>
       <c r="Z18" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -3564,14 +3569,14 @@
       </c>
       <c r="AA18" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB18" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="AC18" s="68">
-        <v>1.7849528559233774E-2</v>
+        <v>1.7359899619338318E-2</v>
       </c>
       <c r="AD18" s="158"/>
       <c r="AH18" s="156"/>
@@ -3601,7 +3606,7 @@
       <c r="I19" s="121"/>
       <c r="J19" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ef#0002</v>
+        <v>obj_0036c#0000</v>
       </c>
       <c r="K19" s="48"/>
       <c r="L19" s="9" t="str">
@@ -3642,7 +3647,7 @@
         <v>Sw</v>
       </c>
       <c r="W19" s="3" t="str">
-        <v>obj_002e1</v>
+        <v>obj_0035a</v>
       </c>
       <c r="X19" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -3650,7 +3655,7 @@
       </c>
       <c r="Y19" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.839E-2</v>
+        <v>1.7890000000000003E-2</v>
       </c>
       <c r="Z19" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -3658,14 +3663,14 @@
       </c>
       <c r="AA19" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB19" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="AC19" s="68">
-        <v>1.8559991807943207E-2</v>
+        <v>1.8048963249348685E-2</v>
       </c>
       <c r="AD19" s="158"/>
       <c r="AH19" s="156"/>
@@ -3701,7 +3706,7 @@
       </c>
       <c r="M20" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_002ee#0002</v>
+        <v>obj_0036d#0000</v>
       </c>
       <c r="N20" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
@@ -3709,7 +3714,7 @@
       </c>
       <c r="O20" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>9.1999999999999998E-3</v>
+        <v>8.9499999999999996E-3</v>
       </c>
       <c r="P20" s="93" t="b">
         <v>1</v>
@@ -3722,18 +3727,18 @@
       </c>
       <c r="S20" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42549</v>
+        <v>42552</v>
       </c>
       <c r="T20" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>42732</v>
+        <v>42738</v>
       </c>
       <c r="V20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W20" s="3" t="str">
-        <v>obj_002de</v>
+        <v>obj_00367</v>
       </c>
       <c r="X20" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -3741,7 +3746,7 @@
       </c>
       <c r="Y20" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>1.8970000000000001E-2</v>
+        <v>1.8440000000000002E-2</v>
       </c>
       <c r="Z20" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -3749,14 +3754,14 @@
       </c>
       <c r="AA20" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB20" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="AC20" s="68">
-        <v>1.9170159640231943E-2</v>
+        <v>1.8626040209155394E-2</v>
       </c>
       <c r="AD20" s="158"/>
       <c r="AH20" s="156"/>
@@ -3824,7 +3829,7 @@
         <v>Sw</v>
       </c>
       <c r="W21" s="3" t="str">
-        <v>obj_002db</v>
+        <v>obj_0035f</v>
       </c>
       <c r="X21" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -3832,7 +3837,7 @@
       </c>
       <c r="Y21" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>1.9889999999999998E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="Z21" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -3840,14 +3845,14 @@
       </c>
       <c r="AA21" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB21" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>46658</v>
+        <v>46661</v>
       </c>
       <c r="AC21" s="68">
-        <v>2.0146242554120088E-2</v>
+        <v>1.9590831755298715E-2</v>
       </c>
       <c r="AD21" s="158"/>
       <c r="AH21" s="156"/>
@@ -3877,7 +3882,7 @@
       <c r="I22" s="121"/>
       <c r="J22" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H22,B22&amp;"M",G22,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ee#0002</v>
+        <v>obj_0036d#0000</v>
       </c>
       <c r="K22" s="48"/>
       <c r="L22" s="9" t="str">
@@ -3918,7 +3923,7 @@
         <v>Sw</v>
       </c>
       <c r="W22" s="3" t="str">
-        <v>obj_002d9</v>
+        <v>obj_00359</v>
       </c>
       <c r="X22" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -3926,7 +3931,7 @@
       </c>
       <c r="Y22" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>2.0789999999999996E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
       <c r="Z22" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -3934,14 +3939,14 @@
       </c>
       <c r="AA22" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB22" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>47756</v>
+        <v>47757</v>
       </c>
       <c r="AC22" s="68">
-        <v>2.1107210111849191E-2</v>
+        <v>2.0540685554446589E-2</v>
       </c>
       <c r="AD22" s="158"/>
       <c r="AH22" s="156"/>
@@ -3977,7 +3982,7 @@
       </c>
       <c r="M23" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>obj_002ed#0002</v>
+        <v>obj_0036b#0000</v>
       </c>
       <c r="N23" s="143" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M23,Trigger),"--")</f>
@@ -3985,7 +3990,7 @@
       </c>
       <c r="O23" s="94">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M23,Trigger),"--")</f>
-        <v>1.0249999999999999E-2</v>
+        <v>9.9500000000000005E-3</v>
       </c>
       <c r="P23" s="93" t="b">
         <v>1</v>
@@ -3998,18 +4003,18 @@
       </c>
       <c r="S23" s="95">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M23,Trigger),"--")</f>
-        <v>42641</v>
+        <v>42646</v>
       </c>
       <c r="T23" s="95">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M23,Trigger),"--")</f>
-        <v>42822</v>
+        <v>42828</v>
       </c>
       <c r="V23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Sw</v>
       </c>
       <c r="W23" s="3" t="str">
-        <v>obj_002ea</v>
+        <v>obj_0035e</v>
       </c>
       <c r="X23" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
@@ -4017,7 +4022,7 @@
       </c>
       <c r="Y23" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>2.1440000000000001E-2</v>
+        <v>2.0910000000000002E-2</v>
       </c>
       <c r="Z23" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -4025,14 +4030,14 @@
       </c>
       <c r="AA23" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB23" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>49580</v>
+        <v>49583</v>
       </c>
       <c r="AC23" s="68">
-        <v>2.1779432326784816E-2</v>
+        <v>2.1238463204224317E-2</v>
       </c>
       <c r="AD23" s="158"/>
       <c r="AH23" s="156"/>
@@ -4100,7 +4105,7 @@
         <v>Sw</v>
       </c>
       <c r="W24" s="3" t="str">
-        <v>obj_002e9</v>
+        <v>obj_0035b</v>
       </c>
       <c r="X24" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -4108,7 +4113,7 @@
       </c>
       <c r="Y24" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>2.1499999999999998E-2</v>
+        <v>2.0970000000000003E-2</v>
       </c>
       <c r="Z24" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -4116,14 +4121,14 @@
       </c>
       <c r="AA24" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB24" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>51407</v>
+        <v>51410</v>
       </c>
       <c r="AC24" s="68">
-        <v>2.1764639668020808E-2</v>
+        <v>2.1226538256923749E-2</v>
       </c>
       <c r="AD24" s="158"/>
       <c r="AH24" s="156"/>
@@ -4153,7 +4158,7 @@
       <c r="I25" s="121"/>
       <c r="J25" s="62" t="str">
         <f>_xll.qlFraRateHelper(,H25,B25&amp;"M",G25,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ed#0002</v>
+        <v>obj_0036b#0000</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="9" t="str">
@@ -4194,7 +4199,7 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="3" t="str">
-        <v>obj_002e6</v>
+        <v>obj_00368</v>
       </c>
       <c r="X25" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -4202,7 +4207,7 @@
       </c>
       <c r="Y25" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>2.145E-2</v>
+        <v>2.0910000000000002E-2</v>
       </c>
       <c r="Z25" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -4210,14 +4215,14 @@
       </c>
       <c r="AA25" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB25" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>53233</v>
+        <v>53237</v>
       </c>
       <c r="AC25" s="68">
-        <v>2.1634034483433141E-2</v>
+        <v>2.1085368400848396E-2</v>
       </c>
       <c r="AD25" s="158"/>
       <c r="AH25" s="156"/>
@@ -4285,7 +4290,7 @@
         <v>Sw</v>
       </c>
       <c r="W26" s="3" t="str">
-        <v>obj_002e3</v>
+        <v>obj_00360</v>
       </c>
       <c r="X26" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -4293,7 +4298,7 @@
       </c>
       <c r="Y26" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>2.0959999999999999E-2</v>
+        <v>2.0420000000000004E-2</v>
       </c>
       <c r="Z26" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -4301,14 +4306,14 @@
       </c>
       <c r="AA26" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB26" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>56885</v>
+        <v>56888</v>
       </c>
       <c r="AC26" s="68">
-        <v>2.0862681108160995E-2</v>
+        <v>2.0324410435328066E-2</v>
       </c>
       <c r="AD26" s="158"/>
       <c r="AH26" s="156"/>
@@ -4376,7 +4381,7 @@
         <v>Sw</v>
       </c>
       <c r="W27" s="3" t="str">
-        <v>obj_002e0</v>
+        <v>obj_00357</v>
       </c>
       <c r="X27" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -4384,7 +4389,7 @@
       </c>
       <c r="Y27" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>2.051E-2</v>
+        <v>1.9970000000000002E-2</v>
       </c>
       <c r="Z27" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -4392,14 +4397,14 @@
       </c>
       <c r="AA27" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB27" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>60538</v>
+        <v>60541</v>
       </c>
       <c r="AC27" s="68">
-        <v>2.0159593750448367E-2</v>
+        <v>1.9630998940024777E-2</v>
       </c>
       <c r="AD27" s="158"/>
       <c r="AH27" s="156"/>
@@ -4467,7 +4472,7 @@
         <v>Sw</v>
       </c>
       <c r="W28" s="3" t="str">
-        <v>obj_002dd</v>
+        <v>obj_00365</v>
       </c>
       <c r="X28" s="3" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -4475,7 +4480,7 @@
       </c>
       <c r="Y28" s="68">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>2.0449999999999999E-2</v>
+        <v>1.9910000000000001E-2</v>
       </c>
       <c r="Z28" s="100">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -4483,14 +4488,14 @@
       </c>
       <c r="AA28" s="4">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="AB28" s="4">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>64192</v>
+        <v>64193</v>
       </c>
       <c r="AC28" s="68">
-        <v>2.0097248772066062E-2</v>
+        <v>1.9569288024333959E-2</v>
       </c>
       <c r="AD28" s="158"/>
       <c r="AH28" s="156"/>
@@ -6979,7 +6984,7 @@
       </c>
       <c r="M56" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002df#0002</v>
+        <v>obj_00369#0000</v>
       </c>
       <c r="N56" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M56,Trigger),"--")</f>
@@ -6987,7 +6992,7 @@
       </c>
       <c r="O56" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M56,Trigger),"--")</f>
-        <v>9.6200000000000001E-3</v>
+        <v>9.4600000000000014E-3</v>
       </c>
       <c r="P56" s="138" t="b">
         <v>1</v>
@@ -7000,11 +7005,11 @@
       </c>
       <c r="S56" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M56,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T56" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M56,Trigger),"--")</f>
-        <v>43006</v>
+        <v>43010</v>
       </c>
       <c r="V56" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7075,7 +7080,7 @@
       </c>
       <c r="M57" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002dc#0002</v>
+        <v>obj_00362#0000</v>
       </c>
       <c r="N57" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M57,Trigger),"--")</f>
@@ -7083,7 +7088,7 @@
       </c>
       <c r="O57" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M57,Trigger),"--")</f>
-        <v>1.153E-2</v>
+        <v>1.1280000000000002E-2</v>
       </c>
       <c r="P57" s="138" t="b">
         <v>1</v>
@@ -7096,11 +7101,11 @@
       </c>
       <c r="S57" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M57,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T57" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M57,Trigger),"--")</f>
-        <v>43371</v>
+        <v>43374</v>
       </c>
       <c r="V57" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7171,7 +7176,7 @@
       </c>
       <c r="M58" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002da#0002</v>
+        <v>obj_0035c#0000</v>
       </c>
       <c r="N58" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M58,Trigger),"--")</f>
@@ -7179,7 +7184,7 @@
       </c>
       <c r="O58" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M58,Trigger),"--")</f>
-        <v>1.3239999999999998E-2</v>
+        <v>1.295E-2</v>
       </c>
       <c r="P58" s="138" t="b">
         <v>1</v>
@@ -7192,11 +7197,11 @@
       </c>
       <c r="S58" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M58,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T58" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M58,Trigger),"--")</f>
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="V58" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7267,7 +7272,7 @@
       </c>
       <c r="M59" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002eb#0002</v>
+        <v>obj_00361#0000</v>
       </c>
       <c r="N59" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M59,Trigger),"--")</f>
@@ -7275,7 +7280,7 @@
       </c>
       <c r="O59" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M59,Trigger),"--")</f>
-        <v>1.4729999999999998E-2</v>
+        <v>1.435E-2</v>
       </c>
       <c r="P59" s="138" t="b">
         <v>1</v>
@@ -7288,11 +7293,11 @@
       </c>
       <c r="S59" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M59,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T59" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M59,Trigger),"--")</f>
-        <v>44102</v>
+        <v>44105</v>
       </c>
       <c r="V59" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7363,7 +7368,7 @@
       </c>
       <c r="M60" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002ec#0002</v>
+        <v>obj_00364#0000</v>
       </c>
       <c r="N60" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -7371,7 +7376,7 @@
       </c>
       <c r="O60" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>1.5939999999999999E-2</v>
+        <v>1.5500000000000003E-2</v>
       </c>
       <c r="P60" s="138" t="b">
         <v>1</v>
@@ -7384,11 +7389,11 @@
       </c>
       <c r="S60" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T60" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>44467</v>
+        <v>44470</v>
       </c>
       <c r="V60" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7459,7 +7464,7 @@
       </c>
       <c r="M61" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e7#0002</v>
+        <v>obj_0036a#0000</v>
       </c>
       <c r="N61" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M61,Trigger),"--")</f>
@@ -7467,7 +7472,7 @@
       </c>
       <c r="O61" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M61,Trigger),"--")</f>
-        <v>1.6909999999999998E-2</v>
+        <v>1.6449999999999999E-2</v>
       </c>
       <c r="P61" s="138" t="b">
         <v>1</v>
@@ -7480,11 +7485,11 @@
       </c>
       <c r="S61" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M61,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T61" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M61,Trigger),"--")</f>
-        <v>44832</v>
+        <v>44837</v>
       </c>
       <c r="V61" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7550,7 +7555,7 @@
       </c>
       <c r="J62" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H62,0,B62,Calendar,D62,E62,F62,G62,I62,C62,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002df#0002</v>
+        <v>obj_00369#0000</v>
       </c>
       <c r="L62" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7558,7 +7563,7 @@
       </c>
       <c r="M62" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e4#0002</v>
+        <v>obj_00363#0000</v>
       </c>
       <c r="N62" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M62,Trigger),"--")</f>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="O62" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M62,Trigger),"--")</f>
-        <v>1.771E-2</v>
+        <v>1.7230000000000002E-2</v>
       </c>
       <c r="P62" s="138" t="b">
         <v>1</v>
@@ -7579,11 +7584,11 @@
       </c>
       <c r="S62" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M62,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T62" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M62,Trigger),"--")</f>
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="V62" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7649,7 +7654,7 @@
       </c>
       <c r="J63" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H63,0,B63,Calendar,D63,E63,F63,G63,I63,C63,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002dc#0002</v>
+        <v>obj_00362#0000</v>
       </c>
       <c r="L63" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7657,7 +7662,7 @@
       </c>
       <c r="M63" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e1#0002</v>
+        <v>obj_0035a#0000</v>
       </c>
       <c r="N63" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M63,Trigger),"--")</f>
@@ -7665,7 +7670,7 @@
       </c>
       <c r="O63" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M63,Trigger),"--")</f>
-        <v>1.839E-2</v>
+        <v>1.7890000000000003E-2</v>
       </c>
       <c r="P63" s="138" t="b">
         <v>1</v>
@@ -7678,11 +7683,11 @@
       </c>
       <c r="S63" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M63,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T63" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M63,Trigger),"--")</f>
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="V63" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7748,7 +7753,7 @@
       </c>
       <c r="J64" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H64,0,B64,Calendar,D64,E64,F64,G64,I64,C64,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002da#0002</v>
+        <v>obj_0035c#0000</v>
       </c>
       <c r="L64" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7756,7 +7761,7 @@
       </c>
       <c r="M64" s="137" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002de#0002</v>
+        <v>obj_00367#0000</v>
       </c>
       <c r="N64" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M64,Trigger),"--")</f>
@@ -7764,7 +7769,7 @@
       </c>
       <c r="O64" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M64,Trigger),"--")</f>
-        <v>1.8970000000000001E-2</v>
+        <v>1.8440000000000002E-2</v>
       </c>
       <c r="P64" s="138" t="b">
         <v>1</v>
@@ -7777,11 +7782,11 @@
       </c>
       <c r="S64" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M64,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T64" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M64,Trigger),"--")</f>
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="V64" s="3" t="str">
         <f t="shared" si="18"/>
@@ -7847,7 +7852,7 @@
       </c>
       <c r="J65" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H65,0,B65,Calendar,D65,E65,F65,G65,I65,C65,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002eb#0002</v>
+        <v>obj_00361#0000</v>
       </c>
       <c r="L65" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7946,7 +7951,7 @@
       </c>
       <c r="J66" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,0,B66,Calendar,D66,E66,F66,G66,I66,C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ec#0002</v>
+        <v>obj_00364#0000</v>
       </c>
       <c r="L66" s="69" t="str">
         <f t="shared" si="19"/>
@@ -7954,7 +7959,7 @@
       </c>
       <c r="M66" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002db#0002</v>
+        <v>obj_0035f#0000</v>
       </c>
       <c r="N66" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M66,Trigger),"--")</f>
@@ -7962,7 +7967,7 @@
       </c>
       <c r="O66" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M66,Trigger),"--")</f>
-        <v>1.9889999999999998E-2</v>
+        <v>1.9349999999999999E-2</v>
       </c>
       <c r="P66" s="138" t="b">
         <v>1</v>
@@ -7975,11 +7980,11 @@
       </c>
       <c r="S66" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M66,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T66" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M66,Trigger),"--")</f>
-        <v>46658</v>
+        <v>46661</v>
       </c>
       <c r="V66" s="3" t="str">
         <f t="shared" si="18"/>
@@ -8045,7 +8050,7 @@
       </c>
       <c r="J67" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H67,0,B67,Calendar,D67,E67,F67,G67,I67,C67,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e7#0002</v>
+        <v>obj_0036a#0000</v>
       </c>
       <c r="L67" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8144,7 +8149,7 @@
       </c>
       <c r="J68" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H68,0,B68,Calendar,D68,E68,F68,G68,I68,C68,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e4#0002</v>
+        <v>obj_00363#0000</v>
       </c>
       <c r="L68" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8243,7 +8248,7 @@
       </c>
       <c r="J69" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H69,0,B69,Calendar,D69,E69,F69,G69,I69,C69,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e1#0002</v>
+        <v>obj_0035a#0000</v>
       </c>
       <c r="L69" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8251,7 +8256,7 @@
       </c>
       <c r="M69" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002d9#0002</v>
+        <v>obj_00359#0000</v>
       </c>
       <c r="N69" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M69,Trigger),"--")</f>
@@ -8259,7 +8264,7 @@
       </c>
       <c r="O69" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M69,Trigger),"--")</f>
-        <v>2.0789999999999996E-2</v>
+        <v>2.0240000000000001E-2</v>
       </c>
       <c r="P69" s="138" t="b">
         <v>1</v>
@@ -8272,11 +8277,11 @@
       </c>
       <c r="S69" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M69,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T69" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M69,Trigger),"--")</f>
-        <v>47756</v>
+        <v>47757</v>
       </c>
       <c r="V69" s="3" t="str">
         <f t="shared" si="23"/>
@@ -8342,7 +8347,7 @@
       </c>
       <c r="J70" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H70,0,B70,Calendar,D70,E70,F70,G70,I70,C70,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002de#0002</v>
+        <v>obj_00367#0000</v>
       </c>
       <c r="L70" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8537,7 +8542,7 @@
       </c>
       <c r="J72" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H72,0,B72,Calendar,D72,E72,F72,G72,I72,C72,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002db#0002</v>
+        <v>obj_0035f#0000</v>
       </c>
       <c r="L72" s="69" t="str">
         <f t="shared" si="19"/>
@@ -8737,7 +8742,7 @@
       </c>
       <c r="M74" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002ea#0002</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="N74" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M74,Trigger),"--")</f>
@@ -8745,7 +8750,7 @@
       </c>
       <c r="O74" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M74,Trigger),"--")</f>
-        <v>2.1440000000000001E-2</v>
+        <v>2.0910000000000002E-2</v>
       </c>
       <c r="P74" s="138" t="b">
         <v>1</v>
@@ -8758,11 +8763,11 @@
       </c>
       <c r="S74" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M74,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T74" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M74,Trigger),"--")</f>
-        <v>49580</v>
+        <v>49583</v>
       </c>
       <c r="V74" s="3" t="str">
         <f t="shared" si="23"/>
@@ -8828,7 +8833,7 @@
       </c>
       <c r="J75" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H75,0,B75,Calendar,D75,E75,F75,G75,I75,C75,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d9#0002</v>
+        <v>obj_00359#0000</v>
       </c>
       <c r="L75" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9220,7 +9225,7 @@
       </c>
       <c r="M79" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e9#0002</v>
+        <v>obj_0035b#0000</v>
       </c>
       <c r="N79" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M79,Trigger),"--")</f>
@@ -9228,7 +9233,7 @@
       </c>
       <c r="O79" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M79,Trigger),"--")</f>
-        <v>2.1499999999999998E-2</v>
+        <v>2.0970000000000003E-2</v>
       </c>
       <c r="P79" s="138" t="b">
         <v>1</v>
@@ -9241,11 +9246,11 @@
       </c>
       <c r="S79" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M79,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T79" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M79,Trigger),"--")</f>
-        <v>51407</v>
+        <v>51410</v>
       </c>
       <c r="V79" s="3" t="str">
         <f t="shared" si="23"/>
@@ -9311,7 +9316,7 @@
       </c>
       <c r="J80" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H80,0,B80,Calendar,D80,E80,F80,G80,I80,C80,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ea#0002</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="L80" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9703,7 +9708,7 @@
       </c>
       <c r="M84" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e6#0002</v>
+        <v>obj_00368#0000</v>
       </c>
       <c r="N84" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M84,Trigger),"--")</f>
@@ -9711,7 +9716,7 @@
       </c>
       <c r="O84" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M84,Trigger),"--")</f>
-        <v>2.145E-2</v>
+        <v>2.0910000000000002E-2</v>
       </c>
       <c r="P84" s="138" t="b">
         <v>1</v>
@@ -9724,11 +9729,11 @@
       </c>
       <c r="S84" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M84,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T84" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M84,Trigger),"--")</f>
-        <v>53233</v>
+        <v>53237</v>
       </c>
       <c r="V84" s="3" t="str">
         <f t="shared" si="23"/>
@@ -9794,7 +9799,7 @@
       </c>
       <c r="J85" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H85,0,B85,Calendar,D85,E85,F85,G85,I85,C85,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e9#0002</v>
+        <v>obj_0035b#0000</v>
       </c>
       <c r="L85" s="69" t="str">
         <f t="shared" si="19"/>
@@ -9898,7 +9903,7 @@
       </c>
       <c r="M86" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e3#0002</v>
+        <v>obj_00360#0000</v>
       </c>
       <c r="N86" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M86,Trigger),"--")</f>
@@ -9906,7 +9911,7 @@
       </c>
       <c r="O86" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M86,Trigger),"--")</f>
-        <v>2.0959999999999999E-2</v>
+        <v>2.0420000000000004E-2</v>
       </c>
       <c r="P86" s="138" t="b">
         <v>1</v>
@@ -9919,11 +9924,11 @@
       </c>
       <c r="S86" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M86,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T86" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M86,Trigger),"--")</f>
-        <v>56885</v>
+        <v>56888</v>
       </c>
       <c r="V86" s="3" t="str">
         <f t="shared" si="23"/>
@@ -10093,7 +10098,7 @@
       </c>
       <c r="M88" s="138" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002e0#0002</v>
+        <v>obj_00357#0000</v>
       </c>
       <c r="N88" s="146" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M88,Trigger),"--")</f>
@@ -10101,7 +10106,7 @@
       </c>
       <c r="O88" s="139">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M88,Trigger),"--")</f>
-        <v>2.051E-2</v>
+        <v>1.9970000000000002E-2</v>
       </c>
       <c r="P88" s="138" t="b">
         <v>1</v>
@@ -10114,11 +10119,11 @@
       </c>
       <c r="S88" s="140">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M88,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T88" s="140">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M88,Trigger),"--")</f>
-        <v>60538</v>
+        <v>60541</v>
       </c>
       <c r="V88" s="3" t="str">
         <f t="shared" si="23"/>
@@ -10189,7 +10194,7 @@
       </c>
       <c r="M89" s="141" t="str">
         <f t="shared" si="20"/>
-        <v>obj_002dd#0002</v>
+        <v>obj_00365#0000</v>
       </c>
       <c r="N89" s="151" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M89,Trigger),"--")</f>
@@ -10197,7 +10202,7 @@
       </c>
       <c r="O89" s="152">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M89,Trigger),"--")</f>
-        <v>2.0449999999999999E-2</v>
+        <v>1.9910000000000001E-2</v>
       </c>
       <c r="P89" s="141" t="b">
         <v>1</v>
@@ -10210,11 +10215,11 @@
       </c>
       <c r="S89" s="150">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M89,Trigger),"--")</f>
-        <v>42275</v>
+        <v>42278</v>
       </c>
       <c r="T89" s="150">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M89,Trigger),"--")</f>
-        <v>64192</v>
+        <v>64193</v>
       </c>
       <c r="V89" s="5" t="str">
         <f t="shared" si="23"/>
@@ -10280,7 +10285,7 @@
       </c>
       <c r="J90" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H90,0,B90,Calendar,D90,E90,F90,G90,I90,C90,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e6#0002</v>
+        <v>obj_00368#0000</v>
       </c>
       <c r="AD90" s="158"/>
     </row>
@@ -10349,7 +10354,7 @@
       </c>
       <c r="J92" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H92,0,B92,Calendar,D92,E92,F92,G92,I92,C92,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e3#0002</v>
+        <v>obj_00360#0000</v>
       </c>
       <c r="AD92" s="158"/>
     </row>
@@ -10418,7 +10423,7 @@
       </c>
       <c r="J94" s="62" t="str">
         <f>_xll.qlSwapRateHelper2(,H94,0,B94,Calendar,D94,E94,F94,G94,I94,C94,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e0#0002</v>
+        <v>obj_00357#0000</v>
       </c>
       <c r="AD94" s="158"/>
     </row>
@@ -10454,7 +10459,7 @@
       </c>
       <c r="J95" s="2" t="str">
         <f>_xll.qlSwapRateHelper2(,H95,0,B95,Calendar,D95,E95,F95,G95,I95,C95,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002dd#0002</v>
+        <v>obj_00365#0000</v>
       </c>
       <c r="AD95" s="158"/>
     </row>
